--- a/BackTest/2020-01-12 BackTest BTG.xlsx
+++ b/BackTest/2020-01-12 BackTest BTG.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>6970</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6970</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,16 +492,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6940</v>
+        <v>6970</v>
       </c>
       <c r="K3" t="n">
         <v>6970</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,14 +525,12 @@
         <v>7068.583333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>6970</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>6970</v>
       </c>
@@ -576,14 +566,12 @@
         <v>7064</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>6970</v>
       </c>
@@ -619,14 +607,12 @@
         <v>7060.083333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>6995</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>6970</v>
       </c>
@@ -662,14 +648,12 @@
         <v>7056</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>6975</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>6970</v>
       </c>
@@ -705,14 +689,12 @@
         <v>7053.666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>7035</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>6970</v>
       </c>
@@ -748,14 +730,12 @@
         <v>7051.166666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>6970</v>
       </c>
@@ -791,14 +771,12 @@
         <v>7047</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>6990</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>6970</v>
       </c>
@@ -834,14 +812,12 @@
         <v>7042.833333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>6990</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>6970</v>
       </c>
@@ -877,14 +853,12 @@
         <v>7038.25</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>6990</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>6970</v>
       </c>
@@ -920,14 +894,12 @@
         <v>7033.916666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>6970</v>
       </c>
@@ -963,14 +935,12 @@
         <v>7029.75</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>6970</v>
       </c>
@@ -1006,14 +976,12 @@
         <v>7025.333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>6970</v>
       </c>
@@ -1049,14 +1017,12 @@
         <v>7019.666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>6950</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>6970</v>
       </c>
@@ -1092,14 +1058,12 @@
         <v>7015.333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>6970</v>
       </c>
@@ -1135,14 +1099,12 @@
         <v>7010.25</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>6995</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>6970</v>
       </c>
@@ -1178,14 +1140,12 @@
         <v>7005.083333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>6990</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>6970</v>
       </c>
@@ -1221,14 +1181,12 @@
         <v>6999.833333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>6985</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>6970</v>
       </c>
@@ -1264,14 +1222,12 @@
         <v>6994.583333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>6985</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>6970</v>
       </c>
@@ -1307,14 +1263,12 @@
         <v>6989.75</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>7005</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>6970</v>
       </c>
@@ -1350,14 +1304,12 @@
         <v>6985.916666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>6990</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>6970</v>
       </c>
@@ -1393,14 +1345,12 @@
         <v>6982.916666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>7000</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>6970</v>
       </c>
@@ -1436,14 +1386,12 @@
         <v>6978.5</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>6995</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>6970</v>
       </c>
@@ -1479,14 +1427,12 @@
         <v>6975.833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>6955</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>6970</v>
       </c>
@@ -1522,14 +1468,12 @@
         <v>6973.083333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>6955</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>6970</v>
       </c>
@@ -1565,14 +1509,12 @@
         <v>6970.75</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>7010</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>6970</v>
       </c>
@@ -1608,14 +1550,12 @@
         <v>6968.5</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>7010</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>6970</v>
       </c>
@@ -1651,14 +1591,12 @@
         <v>6966.666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>7010</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>6970</v>
       </c>
@@ -1694,14 +1632,12 @@
         <v>6964.416666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>7010</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>6970</v>
       </c>
@@ -1737,14 +1673,12 @@
         <v>6966.25</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>7010</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>6970</v>
       </c>
@@ -1780,14 +1714,12 @@
         <v>6967.166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>6960</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>6970</v>
       </c>
@@ -1823,14 +1755,12 @@
         <v>6965.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>6955</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>6970</v>
       </c>
@@ -1866,14 +1796,12 @@
         <v>6966.333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>6960</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>6970</v>
       </c>
@@ -1909,14 +1837,12 @@
         <v>6966.083333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>6960</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>6970</v>
       </c>
@@ -1952,14 +1878,12 @@
         <v>6966.583333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>6970</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>6970</v>
       </c>
@@ -1995,14 +1919,12 @@
         <v>6967.583333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>6970</v>
       </c>
@@ -2038,14 +1960,12 @@
         <v>6968.833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>6985</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>6970</v>
       </c>
@@ -2081,14 +2001,12 @@
         <v>6970.333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>6985</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>6970</v>
       </c>
@@ -2124,14 +2042,12 @@
         <v>6972.083333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>7015</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>6970</v>
       </c>
@@ -2167,14 +2083,12 @@
         <v>6974.416666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>7015</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>6970</v>
       </c>
@@ -2210,14 +2124,12 @@
         <v>6977.5</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>7010</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>6970</v>
       </c>
@@ -2253,14 +2165,12 @@
         <v>6978.666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>6975</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>6970</v>
       </c>
@@ -2296,14 +2206,12 @@
         <v>6980.333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>7030</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>6970</v>
       </c>
@@ -2339,14 +2247,12 @@
         <v>6982.833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>6970</v>
       </c>
@@ -2382,14 +2288,12 @@
         <v>6985.583333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>7035</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>6970</v>
       </c>
@@ -2425,14 +2329,12 @@
         <v>6986.083333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>6970</v>
       </c>
@@ -2468,14 +2370,12 @@
         <v>6987.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>7030</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>6970</v>
       </c>
@@ -2511,14 +2411,12 @@
         <v>6987.25</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>6970</v>
       </c>
@@ -2554,14 +2452,12 @@
         <v>6987</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>6970</v>
       </c>
@@ -2597,14 +2493,12 @@
         <v>6986.666666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>6955</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>6970</v>
       </c>
@@ -2640,14 +2534,12 @@
         <v>6987.583333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>6950</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>6970</v>
       </c>
@@ -2683,14 +2575,12 @@
         <v>6988.833333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>6970</v>
       </c>
@@ -2726,14 +2616,12 @@
         <v>6989.5</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>6975</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>6970</v>
       </c>
@@ -2769,14 +2657,12 @@
         <v>6989.75</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>7015</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>6970</v>
       </c>
@@ -2812,14 +2698,12 @@
         <v>6987.75</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>7015</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>6970</v>
       </c>
@@ -2855,14 +2739,12 @@
         <v>6988.333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>6970</v>
       </c>
@@ -2898,14 +2780,12 @@
         <v>6988.333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>6970</v>
       </c>
@@ -2941,14 +2821,12 @@
         <v>6989.5</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>6970</v>
       </c>
@@ -2984,14 +2862,12 @@
         <v>6990.916666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>7020</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>6970</v>
       </c>
@@ -3027,14 +2903,12 @@
         <v>6991.166666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>7005</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>6970</v>
       </c>
@@ -3070,14 +2944,12 @@
         <v>6992.25</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>7005</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>6970</v>
       </c>
@@ -3113,14 +2985,12 @@
         <v>6992.666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>6970</v>
       </c>
@@ -3156,14 +3026,12 @@
         <v>6993.416666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>7000</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>6970</v>
       </c>
@@ -3199,14 +3067,12 @@
         <v>6993</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>6975</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>6970</v>
       </c>
@@ -3242,14 +3108,12 @@
         <v>6992.833333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>6950</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>6970</v>
       </c>
@@ -3285,14 +3149,12 @@
         <v>6992.583333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>6965</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>6970</v>
       </c>
@@ -3328,14 +3190,12 @@
         <v>6992.083333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>6955</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>6970</v>
       </c>
@@ -3371,14 +3231,12 @@
         <v>6991.416666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>6950</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>6970</v>
       </c>
@@ -3414,14 +3272,12 @@
         <v>6991</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>6965</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>6970</v>
       </c>
@@ -3457,14 +3313,12 @@
         <v>6990.833333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>6965</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>6970</v>
       </c>
@@ -3500,14 +3354,12 @@
         <v>6990.666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>6970</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>6970</v>
       </c>
@@ -3543,14 +3395,12 @@
         <v>6990.333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>6970</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>6970</v>
       </c>
@@ -3586,14 +3436,12 @@
         <v>6991</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>7020</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>6970</v>
       </c>
@@ -3629,14 +3477,12 @@
         <v>6991.416666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>6975</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>6970</v>
       </c>
@@ -3672,14 +3518,12 @@
         <v>6992.083333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>7020</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>6970</v>
       </c>
@@ -3715,14 +3559,12 @@
         <v>6992.5</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>7020</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>6970</v>
       </c>
@@ -3758,14 +3600,12 @@
         <v>6993.666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>6970</v>
       </c>
@@ -3801,14 +3641,12 @@
         <v>6994.916666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>7070</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>6970</v>
       </c>
@@ -3844,14 +3682,12 @@
         <v>6996</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>6970</v>
       </c>
@@ -3887,14 +3723,12 @@
         <v>6996.75</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>7055</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>6970</v>
       </c>
@@ -3930,14 +3764,12 @@
         <v>6997.833333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>7055</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>6970</v>
       </c>
@@ -3973,14 +3805,12 @@
         <v>6998.666666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>7040</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>6970</v>
       </c>
@@ -4016,14 +3846,12 @@
         <v>6999.333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>7055</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>6970</v>
       </c>
@@ -4059,14 +3887,12 @@
         <v>6999.833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>7045</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>6970</v>
       </c>
@@ -4102,14 +3928,12 @@
         <v>7001.416666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>7050</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>6970</v>
       </c>
@@ -4145,14 +3969,12 @@
         <v>7002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>7050</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>6970</v>
       </c>
@@ -4188,14 +4010,12 @@
         <v>7002.333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>7030</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>6970</v>
       </c>
@@ -4231,14 +4051,12 @@
         <v>7003</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>7050</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>6970</v>
       </c>
@@ -4274,14 +4092,12 @@
         <v>7003.583333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>7045</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>6970</v>
       </c>
@@ -4317,14 +4133,12 @@
         <v>7004.25</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>7050</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>6970</v>
       </c>
@@ -4360,14 +4174,12 @@
         <v>7005.75</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>6970</v>
       </c>
@@ -4403,14 +4215,12 @@
         <v>7007.25</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>7045</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>6970</v>
       </c>
@@ -4446,14 +4256,12 @@
         <v>7008.666666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>7030</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>6970</v>
       </c>
@@ -4489,14 +4297,12 @@
         <v>7010.166666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>7050</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>6970</v>
       </c>
@@ -4532,14 +4338,12 @@
         <v>7011.25</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>7045</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>6970</v>
       </c>
@@ -4575,14 +4379,12 @@
         <v>7012</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>6970</v>
       </c>
@@ -4618,14 +4420,12 @@
         <v>7012.333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>7005</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>6970</v>
       </c>
@@ -4661,14 +4461,12 @@
         <v>7012.75</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>6970</v>
       </c>
@@ -4704,14 +4502,12 @@
         <v>7012.916666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>7025</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>6970</v>
       </c>
@@ -4747,14 +4543,12 @@
         <v>7013.333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>7040</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>6970</v>
       </c>
@@ -4790,14 +4584,12 @@
         <v>7013.333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>7035</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>6970</v>
       </c>
@@ -4833,14 +4625,12 @@
         <v>7013.916666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>7035</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>6970</v>
       </c>
@@ -4876,14 +4666,12 @@
         <v>7013.583333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>7010</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>6970</v>
       </c>
@@ -4919,14 +4707,12 @@
         <v>7013.25</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>7010</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>6970</v>
       </c>
@@ -4962,14 +4748,12 @@
         <v>7013.916666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>7075</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>6970</v>
       </c>
@@ -5005,14 +4789,12 @@
         <v>7015.5</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>7075</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>6970</v>
       </c>
@@ -5048,14 +4830,12 @@
         <v>7016.25</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>7075</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
         <v>6970</v>
       </c>
@@ -5091,14 +4871,12 @@
         <v>7017.833333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>7000</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
         <v>6970</v>
       </c>
@@ -5134,14 +4912,12 @@
         <v>7019.083333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>7000</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>6970</v>
       </c>
@@ -5177,14 +4953,12 @@
         <v>7020.833333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>7055</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
         <v>6970</v>
       </c>
@@ -5220,14 +4994,12 @@
         <v>7021.75</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>7065</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>6970</v>
       </c>
@@ -5263,14 +5035,12 @@
         <v>7022.666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>7080</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
         <v>6970</v>
       </c>
@@ -5306,14 +5076,12 @@
         <v>7024</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>7050</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
         <v>6970</v>
       </c>
@@ -5349,14 +5117,12 @@
         <v>7025.583333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>7095</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
         <v>6970</v>
       </c>
@@ -5392,14 +5158,12 @@
         <v>7024.166666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>7105</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
         <v>6970</v>
       </c>
@@ -5558,14 +5322,12 @@
         <v>7020.333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>6950</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>6970</v>
       </c>
@@ -5601,14 +5363,12 @@
         <v>7019.75</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>6970</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
         <v>6970</v>
       </c>
@@ -5644,14 +5404,12 @@
         <v>7018.833333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>6980</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
         <v>6970</v>
       </c>
@@ -5687,14 +5445,12 @@
         <v>7017.833333333333</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>6970</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
         <v>6970</v>
       </c>
@@ -5730,14 +5486,12 @@
         <v>7017.833333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>6975</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>6970</v>
       </c>
@@ -5773,14 +5527,12 @@
         <v>7017.416666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>6950</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>6970</v>
       </c>
@@ -5816,14 +5568,12 @@
         <v>7016.166666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>6945</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
         <v>6970</v>
       </c>
@@ -5859,14 +5609,12 @@
         <v>7015.5</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>6890</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
         <v>6970</v>
       </c>
@@ -5902,14 +5650,12 @@
         <v>7014.583333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>6890</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>6970</v>
       </c>
@@ -5945,14 +5691,12 @@
         <v>7014.416666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>6940</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
         <v>6970</v>
       </c>
@@ -5988,14 +5732,12 @@
         <v>7013.333333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>6900</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
         <v>6970</v>
       </c>
@@ -6031,14 +5773,12 @@
         <v>7012</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>6900</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
         <v>6970</v>
       </c>
@@ -6074,14 +5814,12 @@
         <v>7010.666666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>6890</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
         <v>6970</v>
       </c>
@@ -6117,14 +5855,12 @@
         <v>7009.583333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>6895</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
         <v>6970</v>
       </c>
@@ -6160,14 +5896,12 @@
         <v>7009.5</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>6905</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
         <v>6970</v>
       </c>
@@ -6203,14 +5937,12 @@
         <v>7008.25</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>7020</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
         <v>6970</v>
       </c>
@@ -6246,14 +5978,12 @@
         <v>7008.166666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>7015</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
         <v>6970</v>
       </c>
@@ -6289,14 +6019,12 @@
         <v>7008.083333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>7015</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
         <v>6970</v>
       </c>
@@ -6332,14 +6060,12 @@
         <v>7007.333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>7015</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
         <v>6970</v>
       </c>
@@ -6375,14 +6101,12 @@
         <v>7006.583333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>6955</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
         <v>6970</v>
       </c>
@@ -6418,14 +6142,12 @@
         <v>7005.916666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>7015</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
         <v>6970</v>
       </c>
@@ -6461,14 +6183,12 @@
         <v>7005.833333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>7005</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
         <v>6970</v>
       </c>
@@ -6504,14 +6224,12 @@
         <v>7004.833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>6960</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
         <v>6970</v>
       </c>
@@ -6547,14 +6265,12 @@
         <v>7003.833333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>6965</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
         <v>6970</v>
       </c>
@@ -6590,14 +6306,12 @@
         <v>7003.5</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>6965</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
         <v>6970</v>
       </c>
@@ -6633,14 +6347,12 @@
         <v>7003.666666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>7040</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
         <v>6970</v>
       </c>
@@ -6676,14 +6388,12 @@
         <v>7003.833333333333</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>7050</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
         <v>6970</v>
       </c>
@@ -6719,14 +6429,12 @@
         <v>7004</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>7060</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
         <v>6970</v>
       </c>
@@ -6762,14 +6470,12 @@
         <v>7004.916666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>7085</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
         <v>6970</v>
       </c>
@@ -6805,14 +6511,12 @@
         <v>7005.333333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>7055</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
         <v>6970</v>
       </c>
@@ -6848,14 +6552,12 @@
         <v>7005.75</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>7055</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
         <v>6970</v>
       </c>
@@ -6891,14 +6593,12 @@
         <v>7006.416666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>6970</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
         <v>6970</v>
       </c>
@@ -6934,14 +6634,12 @@
         <v>7007.166666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>7095</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
         <v>6970</v>
       </c>
@@ -6977,14 +6675,12 @@
         <v>7008</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>7095</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
         <v>6970</v>
       </c>
@@ -7020,14 +6716,12 @@
         <v>7008.75</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>7090</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
         <v>6970</v>
       </c>
@@ -7063,14 +6757,12 @@
         <v>7009.583333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>7105</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
         <v>6970</v>
       </c>
@@ -7106,14 +6798,12 @@
         <v>7010.666666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>7085</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
         <v>6970</v>
       </c>

--- a/BackTest/2020-01-12 BackTest BTG.xlsx
+++ b/BackTest/2020-01-12 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3609.89223889</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>4252.639838890001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>3815.566338890001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>3824.012138890001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>3785.258138890001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,7 +616,7 @@
         <v>3729.258138890001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>7220</v>
@@ -648,7 +624,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -679,7 +655,7 @@
         <v>4068.482738890001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>7120</v>
@@ -718,7 +694,7 @@
         <v>4125.52143889</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>7130</v>
@@ -757,7 +733,7 @@
         <v>4125.52143889</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>7240</v>
@@ -796,7 +772,7 @@
         <v>4788.58113889</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>7240</v>
@@ -835,9 +811,11 @@
         <v>4739.881238890001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7255</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,9 +850,11 @@
         <v>4729.881238890001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7240</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -909,9 +889,11 @@
         <v>4749.881238890001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7230</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -946,9 +928,11 @@
         <v>5917.74303889</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7245</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1316,9 +1300,11 @@
         <v>5785.65740262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7280</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1353,9 +1339,11 @@
         <v>5632.95660262</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7170</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1427,9 +1415,11 @@
         <v>5732.57960262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7150</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1464,9 +1454,11 @@
         <v>5664.98350262</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7145</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1501,9 +1493,11 @@
         <v>5864.98350262</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7120</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1538,9 +1532,11 @@
         <v>5524.124502619999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7145</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1575,9 +1571,11 @@
         <v>5610.281302619999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6900</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1612,9 +1610,11 @@
         <v>5639.490302619999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6905</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1649,9 +1649,11 @@
         <v>5639.277702619999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7055</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1686,9 +1688,11 @@
         <v>5752.421602619999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6910</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1723,9 +1727,11 @@
         <v>5545.385502619999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6975</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1760,9 +1766,11 @@
         <v>5535.385502619999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6930</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1797,9 +1805,11 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6920</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1834,9 +1844,11 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6910</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1871,9 +1883,11 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6910</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1908,9 +1922,11 @@
         <v>5460.385502619999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6910</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1945,9 +1961,11 @@
         <v>5408.818802619999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6880</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1982,9 +2000,11 @@
         <v>5444.367902619999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6850</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2019,9 +2039,11 @@
         <v>5585.740502619999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6905</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2056,9 +2078,11 @@
         <v>5538.194702619999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6930</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2093,9 +2117,11 @@
         <v>5555.363502619999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6830</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2130,9 +2156,11 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6870</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2167,9 +2195,11 @@
         <v>5662.236702619999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6950</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2204,9 +2234,11 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6945</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2241,9 +2273,11 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6995</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2278,9 +2312,11 @@
         <v>5641.997902619999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6995</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2315,9 +2351,11 @@
         <v>5609.061702619999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6975</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2352,9 +2390,11 @@
         <v>5609.061702619999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6950</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2389,9 +2429,11 @@
         <v>5649.588602619999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6950</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2426,9 +2468,11 @@
         <v>5681.371902619999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6975</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2463,7 +2507,7 @@
         <v>5681.972002619998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>7000</v>
@@ -2502,7 +2546,7 @@
         <v>5654.054302619998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>7095</v>
@@ -2541,7 +2585,7 @@
         <v>5654.154302619999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>6990</v>
@@ -2580,9 +2624,11 @@
         <v>5654.049302619999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7025</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2617,9 +2663,11 @@
         <v>5653.918402619999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6955</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2654,9 +2702,11 @@
         <v>5654.028402619999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6920</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2691,9 +2741,11 @@
         <v>5653.602102619999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6970</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2728,9 +2780,11 @@
         <v>5653.689502619999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6940</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2765,9 +2819,11 @@
         <v>5653.520702619999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6980</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2802,9 +2858,11 @@
         <v>5654.520702619999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6930</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2839,9 +2897,11 @@
         <v>5653.520702619999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6995</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2876,9 +2936,11 @@
         <v>5707.716802619999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6975</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2913,9 +2975,11 @@
         <v>5707.716802619999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6980</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2950,9 +3014,11 @@
         <v>5708.716802619999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6980</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2987,9 +3053,11 @@
         <v>5708.716802619999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6990</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3024,9 +3092,11 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6990</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3061,9 +3131,11 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6980</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3098,9 +3170,11 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6980</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3135,9 +3209,11 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6980</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3209,9 +3285,11 @@
         <v>5864.274902619999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6950</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3246,9 +3324,11 @@
         <v>5864.374902619999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6980</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3283,9 +3363,11 @@
         <v>5863.374902619999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6995</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3320,9 +3402,11 @@
         <v>5539.685502619999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6990</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3357,9 +3441,11 @@
         <v>5539.685502619999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6985</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3394,9 +3480,11 @@
         <v>5539.78550262</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6985</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3431,9 +3519,11 @@
         <v>5522.560102619999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7005</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3468,9 +3558,11 @@
         <v>5536.231902619999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6990</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3505,9 +3597,11 @@
         <v>5580.231902619999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>7005</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3542,9 +3636,11 @@
         <v>5579.806102619999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7015</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3579,9 +3675,11 @@
         <v>5579.70320262</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7010</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3616,9 +3714,11 @@
         <v>5579.80320262</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6955</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3653,9 +3753,11 @@
         <v>5579.80320262</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7010</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3690,9 +3792,11 @@
         <v>5579.80320262</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7010</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3727,9 +3831,11 @@
         <v>5579.80320262</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>7010</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3764,9 +3870,11 @@
         <v>5579.80320262</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>7010</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3801,9 +3909,11 @@
         <v>5524.54650262</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>7010</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3838,9 +3948,11 @@
         <v>5524.33310262</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6960</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3875,9 +3987,11 @@
         <v>5561.41300262</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6955</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3912,9 +4026,11 @@
         <v>5561.41300262</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6960</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3949,9 +4065,11 @@
         <v>5561.41300262</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6960</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3986,9 +4104,11 @@
         <v>5575.30670262</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6960</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4023,9 +4143,11 @@
         <v>5578.30670262</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6980</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4060,9 +4182,11 @@
         <v>5824.445102619999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6985</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4097,9 +4221,11 @@
         <v>5840.75360262</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7000</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4134,9 +4260,11 @@
         <v>5952.030402619999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7015</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4171,9 +4299,11 @@
         <v>6048.076102619999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>7020</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4208,9 +4338,11 @@
         <v>6047.926302619999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>7035</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4245,9 +4377,11 @@
         <v>6062.427502619998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6975</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4282,9 +4416,11 @@
         <v>6062.315102619998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>7030</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4319,9 +4455,11 @@
         <v>6062.415702619998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6980</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4356,9 +4494,11 @@
         <v>6062.306302619998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>7035</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4393,9 +4533,11 @@
         <v>6063.306302619998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6980</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4430,9 +4572,11 @@
         <v>6039.653802619998</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>7030</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4467,9 +4611,11 @@
         <v>6039.653802619998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6980</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4504,9 +4650,11 @@
         <v>6039.516102619998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6980</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4541,9 +4689,11 @@
         <v>6041.352102619998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6955</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4578,9 +4728,11 @@
         <v>6041.432102619998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>7005</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4615,9 +4767,11 @@
         <v>6041.231502619998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>7025</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4652,9 +4806,11 @@
         <v>6041.231502619998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>7015</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4689,9 +4845,11 @@
         <v>6038.752002619997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>7015</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4726,9 +4884,11 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6975</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4763,9 +4923,11 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7025</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4800,9 +4962,11 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7025</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4837,9 +5001,11 @@
         <v>6038.042102619997</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7025</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4874,9 +5040,11 @@
         <v>6037.842102619998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>7005</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4911,9 +5079,11 @@
         <v>6037.942102619998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6985</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4948,9 +5118,11 @@
         <v>6037.942102619998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7005</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4985,9 +5157,11 @@
         <v>6030.094602619998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7005</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5022,9 +5196,11 @@
         <v>5981.897602619998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6975</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5059,9 +5235,11 @@
         <v>5964.646202619998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6970</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5096,9 +5274,11 @@
         <v>5964.646202619998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6965</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5133,9 +5313,11 @@
         <v>5964.535702619998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6965</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5170,9 +5352,11 @@
         <v>5964.535702619998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6950</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5207,9 +5391,11 @@
         <v>5967.735702619998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>6950</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5244,9 +5430,11 @@
         <v>5985.735702619998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6965</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5281,9 +5469,11 @@
         <v>5985.735702619998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>6970</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5318,9 +5508,11 @@
         <v>5944.315702619998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>6970</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5355,9 +5547,11 @@
         <v>5944.415702619998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>6960</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5392,9 +5586,11 @@
         <v>5943.415702619998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>7020</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5429,9 +5625,11 @@
         <v>5943.515702619999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>6975</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5466,9 +5664,11 @@
         <v>5943.515702619999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>7020</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5503,9 +5703,11 @@
         <v>6002.223702619998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>7020</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5540,9 +5742,11 @@
         <v>6002.223702619998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7060</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5577,9 +5781,11 @@
         <v>5996.123702619998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>7060</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5614,9 +5820,11 @@
         <v>5996.123702619998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>7050</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5651,9 +5859,11 @@
         <v>5996.223702619998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>7050</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5688,9 +5898,11 @@
         <v>5996.223702619998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>7055</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5725,9 +5937,11 @@
         <v>5996.223702619998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>7055</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5762,9 +5976,11 @@
         <v>5996.023702619998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>7055</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5799,9 +6015,11 @@
         <v>5996.123702619999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>7040</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5836,9 +6054,11 @@
         <v>5970.883302619999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>7050</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5873,9 +6093,11 @@
         <v>5968.883302619999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7045</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5910,9 +6132,11 @@
         <v>5969.983302619999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>7030</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5947,9 +6171,11 @@
         <v>5969.683302619999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7050</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5984,9 +6210,11 @@
         <v>5969.78330262</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>7045</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6021,9 +6249,11 @@
         <v>5969.78330262</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>7050</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6058,9 +6288,11 @@
         <v>5969.58330262</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>7050</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6095,9 +6327,11 @@
         <v>5969.58330262</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>7045</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6132,9 +6366,11 @@
         <v>5969.68330262</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>7045</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6169,9 +6405,11 @@
         <v>5943.44420262</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>7050</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6206,9 +6444,11 @@
         <v>5943.44420262</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>7025</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6243,9 +6483,11 @@
         <v>5941.098202620001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>7025</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6280,9 +6522,11 @@
         <v>5941.198202620001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>7005</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6317,9 +6561,11 @@
         <v>5941.198202620001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>7025</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6354,9 +6600,11 @@
         <v>5941.398202620001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>7025</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6391,9 +6639,11 @@
         <v>5941.098202620001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>7045</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6428,9 +6678,11 @@
         <v>5934.006002620001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>7035</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6465,9 +6717,11 @@
         <v>5934.006002620001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>7010</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6502,9 +6756,11 @@
         <v>5870.90510262</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>7010</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6539,9 +6795,11 @@
         <v>5899.45580262</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>6960</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6576,9 +6834,11 @@
         <v>5899.45580262</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>7075</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6613,9 +6873,11 @@
         <v>5899.45580262</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>7075</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6650,9 +6912,11 @@
         <v>5899.45580262</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>7075</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6687,9 +6951,11 @@
         <v>5899.02380262</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>7075</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6724,9 +6990,11 @@
         <v>5899.22380262</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>7055</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6761,9 +7029,11 @@
         <v>5899.22380262</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>7060</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6798,9 +7068,11 @@
         <v>5899.42380262</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>7060</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6835,9 +7107,11 @@
         <v>6194.28230262</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>7080</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6872,9 +7146,11 @@
         <v>6194.48230262</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>7095</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6909,9 +7185,11 @@
         <v>4428.373302620001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>7110</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6946,9 +7224,11 @@
         <v>4482.061802620001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>6890</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6983,9 +7263,11 @@
         <v>4481.721802620001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>7010</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7020,9 +7302,11 @@
         <v>4481.62180262</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>6955</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7057,9 +7341,11 @@
         <v>4487.82180262</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>6940</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7094,9 +7380,11 @@
         <v>4488.02170262</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>6945</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -7131,9 +7419,11 @@
         <v>4488.02170262</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>6950</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7168,9 +7458,11 @@
         <v>4487.82170262</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>6950</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7205,9 +7497,11 @@
         <v>4487.92170262</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>6945</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7242,9 +7536,11 @@
         <v>4323.36170262</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>6975</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7279,9 +7575,11 @@
         <v>4110.00720262</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>6945</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7316,9 +7614,11 @@
         <v>4268.07300262</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>6890</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7353,9 +7653,11 @@
         <v>3698.72300262</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>6925</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7390,9 +7692,11 @@
         <v>3699.12300262</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>6895</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7427,9 +7731,11 @@
         <v>3699.02300262</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6940</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7464,9 +7770,11 @@
         <v>3594.07620262</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6900</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7501,9 +7809,11 @@
         <v>3594.07620262</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>6890</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7538,9 +7848,11 @@
         <v>3594.17620262</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>6890</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7575,7 +7887,7 @@
         <v>4617.06190262</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>6895</v>
@@ -7614,9 +7926,11 @@
         <v>4582.764902620001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>7015</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7651,9 +7965,11 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>6900</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7688,9 +8004,11 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>7015</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7725,9 +8043,11 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>7015</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7762,9 +8082,11 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>7015</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7799,9 +8121,11 @@
         <v>4482.22030262</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>7015</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7836,9 +8160,11 @@
         <v>4563.76340262</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>7010</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7873,9 +8199,11 @@
         <v>4188.604402620001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>7045</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7910,9 +8238,11 @@
         <v>4188.604402620001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>6995</v>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7947,9 +8277,11 @@
         <v>4290.215902620001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>6995</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7984,9 +8316,11 @@
         <v>4339.220102620001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>7035</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -8021,9 +8355,11 @@
         <v>4609.553902620001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>7050</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8058,9 +8394,11 @@
         <v>4504.553902620001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>7060</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8095,9 +8433,11 @@
         <v>4504.653902620002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>7055</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8132,9 +8472,11 @@
         <v>4504.453902620002</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>7085</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8206,9 +8548,11 @@
         <v>4722.398602620002</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>7070</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8243,9 +8587,11 @@
         <v>4722.498602620002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>7090</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8280,9 +8626,11 @@
         <v>4722.498602620002</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>7095</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8946,9 +9294,11 @@
         <v>5682.861902620001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>7165</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8983,9 +9333,11 @@
         <v>5683.061902620001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>7160</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9020,9 +9372,11 @@
         <v>5672.220402620001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>7170</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9094,9 +9448,11 @@
         <v>5674.64050262</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>7155</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9131,9 +9487,11 @@
         <v>5674.84050262</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>7150</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9168,9 +9526,11 @@
         <v>5686.53580262</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>7185</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9205,9 +9565,11 @@
         <v>5686.635802620001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>7190</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9242,9 +9604,11 @@
         <v>5686.53580262</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>7205</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9279,9 +9643,11 @@
         <v>5607.547702620001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>7200</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9316,9 +9682,11 @@
         <v>5607.547702620001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>7185</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9353,9 +9721,11 @@
         <v>5607.647702620001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>7185</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9390,9 +9760,11 @@
         <v>5919.914902620001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>7200</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9945,9 +10317,11 @@
         <v>6536.153590600001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>7145</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -12572,7 +12946,7 @@
         <v>20095.44900199999</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12757,7 +13131,7 @@
         <v>21124.54710199999</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12979,7 +13353,7 @@
         <v>20776.23152251999</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13016,7 +13390,7 @@
         <v>20409.68082251999</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13053,7 +13427,7 @@
         <v>20570.77412251999</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13090,7 +13464,7 @@
         <v>19650.11482251999</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13127,7 +13501,7 @@
         <v>19195.01682251999</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13164,7 +13538,7 @@
         <v>19177.37322251999</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13201,7 +13575,7 @@
         <v>16929.03692251999</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13238,7 +13612,7 @@
         <v>15815.89552251999</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13275,7 +13649,7 @@
         <v>16077.71672251999</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13312,7 +13686,7 @@
         <v>16073.52292251999</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13349,7 +13723,7 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13386,7 +13760,7 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -17678,16 +18052,18 @@
         <v>18190.86304673</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L467" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
       <c r="M467" t="inlineStr"/>
     </row>
     <row r="468">
@@ -17717,7 +18093,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17750,7 +18130,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17783,7 +18167,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17812,11 +18200,15 @@
         <v>24887.36584673</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17849,7 +18241,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17878,11 +18274,15 @@
         <v>26998.43804673</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17911,11 +18311,15 @@
         <v>30810.53744673</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17944,11 +18348,15 @@
         <v>36674.61814673</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17977,11 +18385,15 @@
         <v>35248.69132931</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18010,11 +18422,15 @@
         <v>35248.69132931</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18043,11 +18459,15 @@
         <v>34660.0135594</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18076,11 +18496,15 @@
         <v>33574.4341594</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18113,7 +18537,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18146,7 +18574,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18179,7 +18611,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18212,7 +18648,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18245,7 +18685,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18278,7 +18722,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18311,7 +18759,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18344,7 +18796,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18377,7 +18833,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18410,7 +18870,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18443,7 +18907,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18476,7 +18944,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18509,7 +18981,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18542,7 +19018,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18575,7 +19055,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18608,7 +19092,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18641,7 +19129,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18674,7 +19166,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18707,7 +19203,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18740,7 +19240,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18773,7 +19277,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18802,14 +19310,16 @@
         <v>33762.4687406</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="n">
-        <v>1</v>
-      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
@@ -18835,7 +19345,7 @@
         <v>33548.1993406</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18868,7 +19378,7 @@
         <v>33548.01084060001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19264,7 +19774,7 @@
         <v>35100.3333553</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19297,7 +19807,7 @@
         <v>34579.78454443</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19396,7 +19906,7 @@
         <v>34560.31664443</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19429,7 +19939,7 @@
         <v>34478.80064443</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19462,7 +19972,7 @@
         <v>34516.59364443</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19495,7 +20005,7 @@
         <v>34313.13934443</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19528,7 +20038,7 @@
         <v>34148.98174443</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19561,7 +20071,7 @@
         <v>33872.05344443</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19594,7 +20104,7 @@
         <v>33872.05344443</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19627,7 +20137,7 @@
         <v>33802.75588611</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19660,7 +20170,7 @@
         <v>33590.17392266</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19693,7 +20203,7 @@
         <v>34166.52724624</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19726,7 +20236,7 @@
         <v>33946.20714624</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19759,7 +20269,7 @@
         <v>34440.19575056</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19792,7 +20302,7 @@
         <v>34887.72444624</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19825,7 +20335,7 @@
         <v>34836.02054624</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19858,7 +20368,7 @@
         <v>34950.69554624</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19891,7 +20401,7 @@
         <v>34950.69554624</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19924,7 +20434,7 @@
         <v>34870.51574624</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19957,7 +20467,7 @@
         <v>35043.60454624</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19990,7 +20500,7 @@
         <v>35032.37384624</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20023,7 +20533,7 @@
         <v>35032.25244624</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20056,7 +20566,7 @@
         <v>34931.60244623999</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20089,7 +20599,7 @@
         <v>34302.57754624</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20122,7 +20632,7 @@
         <v>33344.58584624</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20188,7 +20698,7 @@
         <v>33034.06434624</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20485,7 +20995,7 @@
         <v>30687.51834624</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20518,7 +21028,7 @@
         <v>30072.44604624</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20551,7 +21061,7 @@
         <v>29930.77184624</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20584,7 +21094,7 @@
         <v>30330.71754624</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20617,7 +21127,7 @@
         <v>29806.79594624</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20650,7 +21160,7 @@
         <v>29806.79594624</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20683,7 +21193,7 @@
         <v>29807.20284624</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20716,7 +21226,7 @@
         <v>29807.26724624</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20749,7 +21259,7 @@
         <v>29682.64304624</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20782,7 +21292,7 @@
         <v>29930.92544624</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20815,7 +21325,7 @@
         <v>29786.53514624</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20848,7 +21358,7 @@
         <v>29907.01484624</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20914,7 +21424,7 @@
         <v>29971.56564624</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20947,7 +21457,7 @@
         <v>29834.10527099</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -22531,7 +23041,7 @@
         <v>29290.71249442</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22564,7 +23074,7 @@
         <v>29638.23589442</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22597,7 +23107,7 @@
         <v>29888.71329442</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22630,7 +23140,7 @@
         <v>29996.74519442</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22663,7 +23173,7 @@
         <v>30098.36519442</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22696,7 +23206,7 @@
         <v>29992.01459442</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22729,7 +23239,7 @@
         <v>30484.49012267</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22762,7 +23272,7 @@
         <v>30639.66432267</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22795,7 +23305,7 @@
         <v>30639.66432267</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22828,7 +23338,7 @@
         <v>30639.66432267</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22861,7 +23371,7 @@
         <v>30639.66432267</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22894,7 +23404,7 @@
         <v>30681.69782267</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22927,7 +23437,7 @@
         <v>30606.23442267</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22960,7 +23470,7 @@
         <v>30831.77035248001</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22993,7 +23503,7 @@
         <v>30823.37835248001</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23026,7 +23536,7 @@
         <v>30664.64645248001</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23059,7 +23569,7 @@
         <v>30112.85795248001</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23191,7 +23701,7 @@
         <v>30408.69315248001</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23224,7 +23734,7 @@
         <v>30505.16655248001</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23257,7 +23767,7 @@
         <v>30383.60025248001</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23323,7 +23833,7 @@
         <v>30344.48775248001</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23356,7 +23866,7 @@
         <v>30344.48775248001</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23521,7 +24031,7 @@
         <v>30344.15815248001</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23554,7 +24064,7 @@
         <v>30344.15815248001</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23587,7 +24097,7 @@
         <v>30344.09415248001</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23620,7 +24130,7 @@
         <v>30294.96805248001</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -26260,7 +26770,7 @@
         <v>23522.67461144002</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26392,7 +26902,7 @@
         <v>23367.14721144002</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26491,7 +27001,7 @@
         <v>23659.30681144002</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26557,7 +27067,7 @@
         <v>23941.63041144002</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26656,7 +27166,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26722,7 +27232,7 @@
         <v>24275.21681144002</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26755,7 +27265,7 @@
         <v>24382.84501144001</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26788,7 +27298,7 @@
         <v>24277.05231144001</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26821,7 +27331,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26854,7 +27364,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -30220,7 +30730,7 @@
         <v>22388.34477165001</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30286,7 +30796,7 @@
         <v>22043.27277165001</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30319,7 +30829,7 @@
         <v>21993.39277165001</v>
       </c>
       <c r="H850" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30352,7 +30862,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30385,7 +30895,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30418,7 +30928,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30517,7 +31027,7 @@
         <v>21697.09887165001</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30550,7 +31060,7 @@
         <v>21897.47677165001</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30583,7 +31093,7 @@
         <v>21883.54957165001</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30616,7 +31126,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30649,7 +31159,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30682,7 +31192,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30715,7 +31225,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30748,7 +31258,7 @@
         <v>21902.33527165001</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30781,7 +31291,7 @@
         <v>21902.23527165001</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30814,7 +31324,7 @@
         <v>21902.13527165002</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30847,7 +31357,7 @@
         <v>21902.03527165002</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30880,7 +31390,7 @@
         <v>21901.83527165002</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30946,7 +31456,7 @@
         <v>21872.44357165002</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30979,7 +31489,7 @@
         <v>21676.30877165002</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -32211,6 +32721,6 @@
       <c r="M907" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BTG.xlsx
+++ b/BackTest/2020-01-12 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,1479 +616,1281 @@
         <v>3729.258138890001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7300</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7130</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7305</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7130</v>
+      </c>
+      <c r="F8" t="n">
+        <v>339.2246</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4068.482738890001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7240</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7245</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7240</v>
+      </c>
+      <c r="F9" t="n">
+        <v>57.0387</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4125.52143889</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7240</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7240</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7240</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.1796</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4125.52143889</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7285</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7255</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7315</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7255</v>
+      </c>
+      <c r="F11" t="n">
+        <v>663.0597</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4788.58113889</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7260</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7260</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7240</v>
+      </c>
+      <c r="F12" t="n">
+        <v>48.6999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4739.881238890001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7230</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7230</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7230</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7230</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4729.881238890001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7245</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7245</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7245</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7245</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4749.881238890001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7295</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7290</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7300</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7290</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1167.8618</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5917.74303889</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7290</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7240</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7290</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7240</v>
+      </c>
+      <c r="F16" t="n">
+        <v>93.7186</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5824.02443889</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7300</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7300</v>
+      </c>
+      <c r="F17" t="n">
+        <v>66.8532</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5890.87763889</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7300</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7300</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7300</v>
+      </c>
+      <c r="F18" t="n">
+        <v>35.8647</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5890.87763889</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7295</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7295</v>
+      </c>
+      <c r="F19" t="n">
+        <v>76.6831</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5890.87763889</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7240</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7225</v>
+      </c>
+      <c r="F20" t="n">
+        <v>327.6534</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5890.87763889</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7295</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7295</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7295</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7295</v>
+      </c>
+      <c r="F21" t="n">
+        <v>17</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5873.87763889</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7225</v>
+      </c>
+      <c r="C22" t="n">
         <v>7220</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="D22" t="n">
+        <v>7225</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F22" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5823.87763889</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7185</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7185</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7185</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7185</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.0181</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5815.859538889999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7280</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7280</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7280</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7280</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.73626373</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5829.59580262</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7175</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7170</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7175</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7170</v>
+      </c>
+      <c r="F25" t="n">
+        <v>43.9384</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5785.65740262</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7165</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7120</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7165</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7120</v>
+      </c>
+      <c r="F26" t="n">
+        <v>152.7008</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5632.95660262</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7145</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7150</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7150</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7145</v>
+      </c>
+      <c r="F27" t="n">
+        <v>150</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5782.95660262</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7150</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7145</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7150</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7125</v>
+      </c>
+      <c r="F28" t="n">
+        <v>50.377</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5732.57960262</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7120</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7120</v>
+      </c>
+      <c r="F29" t="n">
+        <v>67.59610000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5664.98350262</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7120</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7145</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7145</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7120</v>
+      </c>
+      <c r="F30" t="n">
+        <v>200</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5864.98350262</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7140</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7140</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6900</v>
+      </c>
+      <c r="F31" t="n">
+        <v>340.859</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5524.124502619999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6920</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6905</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6920</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6905</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.1568</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5610.281302619999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7075</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7055</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7075</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7055</v>
+      </c>
+      <c r="F33" t="n">
+        <v>29.209</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5639.490302619999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7055</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6910</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7055</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6910</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2126</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5639.277702619999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6965</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6975</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6975</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6965</v>
+      </c>
+      <c r="F35" t="n">
+        <v>113.1439</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5752.421602619999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6930</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6930</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6930</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6930</v>
+      </c>
+      <c r="F36" t="n">
+        <v>207.0361</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5545.385502619999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6920</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6920</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6920</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6920</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5535.385502619999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6915</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6910</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6915</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6910</v>
+      </c>
+      <c r="F38" t="n">
+        <v>57</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5478.385502619999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6910</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6910</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6910</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6910</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5478.385502619999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6910</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6910</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6910</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6910</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5478.385502619999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6910</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6880</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6910</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6880</v>
+      </c>
+      <c r="F41" t="n">
+        <v>18</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5460.385502619999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6880</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6850</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6880</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6850</v>
+      </c>
+      <c r="F42" t="n">
+        <v>51.5667</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5408.818802619999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6905</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6905</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6905</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6905</v>
+      </c>
+      <c r="F43" t="n">
+        <v>35.5491</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5444.367902619999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6850</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6850</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6930</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6930</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6930</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6930</v>
+      </c>
+      <c r="F44" t="n">
+        <v>141.3726</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5585.740502619999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6850</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6835</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6830</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6835</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6830</v>
+      </c>
+      <c r="F45" t="n">
+        <v>47.5458</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5538.194702619999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>6850</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7300</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7130</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7305</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7130</v>
-      </c>
-      <c r="F8" t="n">
-        <v>339.2246</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4068.482738890001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7120</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7240</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7240</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7245</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7240</v>
-      </c>
-      <c r="F9" t="n">
-        <v>57.0387</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4125.52143889</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7130</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7240</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7240</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7240</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7240</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.1796</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4125.52143889</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7240</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7285</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7255</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7315</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7255</v>
-      </c>
-      <c r="F11" t="n">
-        <v>663.0597</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4788.58113889</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7240</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7260</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7240</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7260</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7240</v>
-      </c>
-      <c r="F12" t="n">
-        <v>48.6999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4739.881238890001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7255</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7230</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7230</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7230</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7230</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4729.881238890001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7240</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7245</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7245</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7245</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7245</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4749.881238890001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7230</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7295</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7290</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7300</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7290</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1167.8618</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5917.74303889</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7245</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7290</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7240</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7290</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7240</v>
-      </c>
-      <c r="F16" t="n">
-        <v>93.7186</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5824.02443889</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7300</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7300</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7300</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7300</v>
-      </c>
-      <c r="F17" t="n">
-        <v>66.8532</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5890.87763889</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7300</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7300</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7300</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7300</v>
-      </c>
-      <c r="F18" t="n">
-        <v>35.8647</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5890.87763889</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7295</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7300</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7300</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7295</v>
-      </c>
-      <c r="F19" t="n">
-        <v>76.6831</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5890.87763889</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7240</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7300</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7300</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7225</v>
-      </c>
-      <c r="F20" t="n">
-        <v>327.6534</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5890.87763889</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7295</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7295</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7295</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7295</v>
-      </c>
-      <c r="F21" t="n">
-        <v>17</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5873.87763889</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7225</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7225</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F22" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5823.87763889</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7185</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7185</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7185</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7185</v>
-      </c>
-      <c r="F23" t="n">
-        <v>8.0181</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5815.859538889999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7280</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7280</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7280</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7280</v>
-      </c>
-      <c r="F24" t="n">
-        <v>13.73626373</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5829.59580262</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7175</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7170</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7175</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7170</v>
-      </c>
-      <c r="F25" t="n">
-        <v>43.9384</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5785.65740262</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7280</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7165</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7120</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7165</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7120</v>
-      </c>
-      <c r="F26" t="n">
-        <v>152.7008</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5632.95660262</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7170</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>7145</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7150</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7150</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7145</v>
-      </c>
-      <c r="F27" t="n">
-        <v>150</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5782.95660262</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7150</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7145</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7150</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7125</v>
-      </c>
-      <c r="F28" t="n">
-        <v>50.377</v>
-      </c>
-      <c r="G28" t="n">
-        <v>5732.57960262</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7150</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7125</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7120</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7125</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7120</v>
-      </c>
-      <c r="F29" t="n">
-        <v>67.59610000000001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>5664.98350262</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7145</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>7120</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7145</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7145</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7120</v>
-      </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5864.98350262</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7120</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>7140</v>
-      </c>
-      <c r="C31" t="n">
-        <v>6900</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7140</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6900</v>
-      </c>
-      <c r="F31" t="n">
-        <v>340.859</v>
-      </c>
-      <c r="G31" t="n">
-        <v>5524.124502619999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7145</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>6920</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6905</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6920</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6905</v>
-      </c>
-      <c r="F32" t="n">
-        <v>86.1568</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5610.281302619999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6900</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>7075</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7055</v>
-      </c>
-      <c r="D33" t="n">
-        <v>7075</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7055</v>
-      </c>
-      <c r="F33" t="n">
-        <v>29.209</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5639.490302619999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6905</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>7055</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6910</v>
-      </c>
-      <c r="D34" t="n">
-        <v>7055</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6910</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.2126</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5639.277702619999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7055</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>6965</v>
-      </c>
-      <c r="C35" t="n">
-        <v>6975</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6975</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6965</v>
-      </c>
-      <c r="F35" t="n">
-        <v>113.1439</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5752.421602619999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6910</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>6930</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6930</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6930</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6930</v>
-      </c>
-      <c r="F36" t="n">
-        <v>207.0361</v>
-      </c>
-      <c r="G36" t="n">
-        <v>5545.385502619999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6975</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>6920</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6920</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6920</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6920</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
-      </c>
-      <c r="G37" t="n">
-        <v>5535.385502619999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6930</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6915</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6910</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6915</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6910</v>
-      </c>
-      <c r="F38" t="n">
-        <v>57</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5478.385502619999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6920</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>6910</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6910</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6910</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6910</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5478.385502619999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6910</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>6910</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6910</v>
-      </c>
-      <c r="D40" t="n">
-        <v>6910</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6910</v>
-      </c>
-      <c r="F40" t="n">
-        <v>15</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5478.385502619999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6910</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>6910</v>
-      </c>
-      <c r="C41" t="n">
-        <v>6880</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6910</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6880</v>
-      </c>
-      <c r="F41" t="n">
-        <v>18</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5460.385502619999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6910</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>6880</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6850</v>
-      </c>
-      <c r="D42" t="n">
-        <v>6880</v>
-      </c>
-      <c r="E42" t="n">
-        <v>6850</v>
-      </c>
-      <c r="F42" t="n">
-        <v>51.5667</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5408.818802619999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6880</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>6905</v>
-      </c>
-      <c r="C43" t="n">
-        <v>6905</v>
-      </c>
-      <c r="D43" t="n">
-        <v>6905</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6905</v>
-      </c>
-      <c r="F43" t="n">
-        <v>35.5491</v>
-      </c>
-      <c r="G43" t="n">
-        <v>5444.367902619999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6850</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>6930</v>
-      </c>
-      <c r="C44" t="n">
-        <v>6930</v>
-      </c>
-      <c r="D44" t="n">
-        <v>6930</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6930</v>
-      </c>
-      <c r="F44" t="n">
-        <v>141.3726</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5585.740502619999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6905</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>6835</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6830</v>
-      </c>
-      <c r="D45" t="n">
-        <v>6835</v>
-      </c>
-      <c r="E45" t="n">
-        <v>6830</v>
-      </c>
-      <c r="F45" t="n">
-        <v>47.5458</v>
-      </c>
-      <c r="G45" t="n">
-        <v>5538.194702619999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6930</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2117,12 +1919,12 @@
         <v>5555.363502619999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6830</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6850</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2156,12 +1958,12 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6870</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6850</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2195,12 +1997,12 @@
         <v>5662.236702619999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6950</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>6850</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2234,12 +2036,12 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6945</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>6850</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2278,7 +2080,9 @@
       <c r="I50" t="n">
         <v>6995</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6850</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2312,12 +2116,12 @@
         <v>5641.997902619999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6995</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>6850</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2356,7 +2160,9 @@
       <c r="I52" t="n">
         <v>6975</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>6850</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2395,7 +2201,9 @@
       <c r="I53" t="n">
         <v>6950</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6850</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,7 +2242,9 @@
       <c r="I54" t="n">
         <v>6950</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>6850</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2473,7 +2283,9 @@
       <c r="I55" t="n">
         <v>6975</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6850</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,7 +2324,9 @@
       <c r="I56" t="n">
         <v>7000</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6850</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,12 +2360,12 @@
         <v>5654.054302619998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>7095</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6850</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,7 +2404,9 @@
       <c r="I58" t="n">
         <v>6990</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6850</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,7 +2445,9 @@
       <c r="I59" t="n">
         <v>7025</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6850</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,7 +2486,9 @@
       <c r="I60" t="n">
         <v>6955</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6850</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2707,7 +2527,9 @@
       <c r="I61" t="n">
         <v>6920</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6850</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,7 +2568,9 @@
       <c r="I62" t="n">
         <v>6970</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6850</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,7 +2609,9 @@
       <c r="I63" t="n">
         <v>6940</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6850</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2824,7 +2650,9 @@
       <c r="I64" t="n">
         <v>6980</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6850</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2863,7 +2691,9 @@
       <c r="I65" t="n">
         <v>6930</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6850</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,7 +2732,9 @@
       <c r="I66" t="n">
         <v>6995</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6850</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2941,7 +2773,9 @@
       <c r="I67" t="n">
         <v>6975</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6850</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,7 +2814,9 @@
       <c r="I68" t="n">
         <v>6980</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6850</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,7 +2855,9 @@
       <c r="I69" t="n">
         <v>6980</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>6850</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,7 +2896,9 @@
       <c r="I70" t="n">
         <v>6990</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6850</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3097,7 +2937,9 @@
       <c r="I71" t="n">
         <v>6990</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>6850</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3136,7 +2978,9 @@
       <c r="I72" t="n">
         <v>6980</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6850</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,7 +3019,9 @@
       <c r="I73" t="n">
         <v>6980</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6850</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3214,7 +3060,9 @@
       <c r="I74" t="n">
         <v>6980</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6850</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3248,10 +3096,14 @@
         <v>5545.498902619999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6980</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6850</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,7 +3142,9 @@
       <c r="I76" t="n">
         <v>6950</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6850</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,7 +3183,9 @@
       <c r="I77" t="n">
         <v>6980</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6850</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,12 +3219,12 @@
         <v>5863.374902619999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6995</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6850</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,7 +3263,9 @@
       <c r="I79" t="n">
         <v>6990</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6850</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,7 +3304,9 @@
       <c r="I80" t="n">
         <v>6985</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6850</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,12 +3340,12 @@
         <v>5539.78550262</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6985</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6850</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,12 +3379,12 @@
         <v>5522.560102619999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7005</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6850</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,12 +3418,12 @@
         <v>5536.231902619999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6990</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6850</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,12 +3457,12 @@
         <v>5580.231902619999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7005</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6850</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,12 +3496,12 @@
         <v>5579.806102619999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>7015</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6850</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,12 +3535,12 @@
         <v>5579.70320262</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6850</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,7 +3579,9 @@
       <c r="I87" t="n">
         <v>6955</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6850</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,12 +3615,12 @@
         <v>5579.80320262</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6850</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,12 +3654,12 @@
         <v>5579.80320262</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6850</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,12 +3693,12 @@
         <v>5579.80320262</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6850</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,12 +3732,12 @@
         <v>5579.80320262</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6850</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,12 +3771,12 @@
         <v>5524.54650262</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6850</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,12 +3810,12 @@
         <v>5524.33310262</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6960</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6850</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,7 +3854,9 @@
       <c r="I94" t="n">
         <v>6955</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6850</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,7 +3895,9 @@
       <c r="I95" t="n">
         <v>6960</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6850</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4070,7 +3936,9 @@
       <c r="I96" t="n">
         <v>6960</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6850</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,7 +3977,9 @@
       <c r="I97" t="n">
         <v>6960</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6850</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,7 +4018,9 @@
       <c r="I98" t="n">
         <v>6980</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6850</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4187,7 +4059,9 @@
       <c r="I99" t="n">
         <v>6985</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6850</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,7 +4100,9 @@
       <c r="I100" t="n">
         <v>7000</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6850</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,7 +4141,9 @@
       <c r="I101" t="n">
         <v>7015</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6850</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,7 +4182,9 @@
       <c r="I102" t="n">
         <v>7020</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6850</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,12 +4218,12 @@
         <v>6047.926302619999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>7035</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6850</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,7 +4262,9 @@
       <c r="I104" t="n">
         <v>6975</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6850</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,12 +4298,12 @@
         <v>6062.315102619998</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>7030</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6850</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,7 +4342,9 @@
       <c r="I106" t="n">
         <v>6980</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6850</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,7 +4383,9 @@
       <c r="I107" t="n">
         <v>7035</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6850</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,7 +4424,9 @@
       <c r="I108" t="n">
         <v>6980</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6850</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4577,7 +4465,9 @@
       <c r="I109" t="n">
         <v>7030</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6850</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,7 +4506,9 @@
       <c r="I110" t="n">
         <v>6980</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6850</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,7 +4547,9 @@
       <c r="I111" t="n">
         <v>6980</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6850</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4694,7 +4588,9 @@
       <c r="I112" t="n">
         <v>6955</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6850</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,7 +4629,9 @@
       <c r="I113" t="n">
         <v>7005</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6850</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,7 +4670,9 @@
       <c r="I114" t="n">
         <v>7025</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6850</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4811,7 +4711,9 @@
       <c r="I115" t="n">
         <v>7015</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6850</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,7 +4752,9 @@
       <c r="I116" t="n">
         <v>7015</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6850</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4889,7 +4793,9 @@
       <c r="I117" t="n">
         <v>6975</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6850</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4928,7 +4834,9 @@
       <c r="I118" t="n">
         <v>7025</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6850</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,12 +4870,12 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6850</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,7 +4914,9 @@
       <c r="I120" t="n">
         <v>7025</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6850</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,7 +4955,9 @@
       <c r="I121" t="n">
         <v>7005</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6850</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5084,7 +4996,9 @@
       <c r="I122" t="n">
         <v>6985</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6850</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5123,7 +5037,9 @@
       <c r="I123" t="n">
         <v>7005</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6850</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5162,7 +5078,9 @@
       <c r="I124" t="n">
         <v>7005</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6850</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5201,7 +5119,9 @@
       <c r="I125" t="n">
         <v>6975</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6850</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5240,7 +5160,9 @@
       <c r="I126" t="n">
         <v>6970</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6850</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5279,7 +5201,9 @@
       <c r="I127" t="n">
         <v>6965</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6850</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,7 +5242,9 @@
       <c r="I128" t="n">
         <v>6965</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6850</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,7 +5283,9 @@
       <c r="I129" t="n">
         <v>6950</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6850</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5396,7 +5324,9 @@
       <c r="I130" t="n">
         <v>6950</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6850</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5435,7 +5365,9 @@
       <c r="I131" t="n">
         <v>6965</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6850</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,7 +5406,9 @@
       <c r="I132" t="n">
         <v>6970</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6850</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5513,7 +5447,9 @@
       <c r="I133" t="n">
         <v>6970</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6850</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5552,7 +5488,9 @@
       <c r="I134" t="n">
         <v>6960</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6850</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5591,7 +5529,9 @@
       <c r="I135" t="n">
         <v>7020</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6850</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5630,7 +5570,9 @@
       <c r="I136" t="n">
         <v>6975</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6850</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5669,7 +5611,9 @@
       <c r="I137" t="n">
         <v>7020</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6850</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5703,12 +5647,12 @@
         <v>6002.223702619998</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>7020</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6850</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5747,7 +5691,9 @@
       <c r="I139" t="n">
         <v>7060</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6850</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5786,7 +5732,9 @@
       <c r="I140" t="n">
         <v>7060</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6850</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5825,7 +5773,9 @@
       <c r="I141" t="n">
         <v>7050</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6850</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5859,12 +5809,12 @@
         <v>5996.223702619998</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>7050</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6850</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5898,12 +5848,12 @@
         <v>5996.223702619998</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>7055</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6850</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5937,12 +5887,12 @@
         <v>5996.223702619998</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7055</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6850</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5976,12 +5926,12 @@
         <v>5996.023702619998</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>7055</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6850</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6015,12 +5965,12 @@
         <v>5996.123702619999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>7040</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6850</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6054,12 +6004,12 @@
         <v>5970.883302619999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>7050</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6850</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6093,12 +6043,12 @@
         <v>5968.883302619999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>7045</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6850</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6132,12 +6082,12 @@
         <v>5969.983302619999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>7030</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6850</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,12 +6121,12 @@
         <v>5969.683302619999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>7050</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6850</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6210,12 +6160,12 @@
         <v>5969.78330262</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7045</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6850</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6249,12 +6199,12 @@
         <v>5969.78330262</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>7050</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6850</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6288,12 +6238,12 @@
         <v>5969.58330262</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>7050</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6850</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6327,12 +6277,12 @@
         <v>5969.58330262</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>7045</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6850</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6366,12 +6316,12 @@
         <v>5969.68330262</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>7045</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6850</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6405,12 +6355,12 @@
         <v>5943.44420262</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>7050</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6850</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6449,7 +6399,9 @@
       <c r="I157" t="n">
         <v>7025</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6850</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6488,7 +6440,9 @@
       <c r="I158" t="n">
         <v>7025</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6850</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6527,7 +6481,9 @@
       <c r="I159" t="n">
         <v>7005</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6850</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6566,7 +6522,9 @@
       <c r="I160" t="n">
         <v>7025</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>6850</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6605,7 +6563,9 @@
       <c r="I161" t="n">
         <v>7025</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6850</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6644,7 +6604,9 @@
       <c r="I162" t="n">
         <v>7045</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6850</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6683,7 +6645,9 @@
       <c r="I163" t="n">
         <v>7035</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6850</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6722,7 +6686,9 @@
       <c r="I164" t="n">
         <v>7010</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6850</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6761,7 +6727,9 @@
       <c r="I165" t="n">
         <v>7010</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6850</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6800,7 +6768,9 @@
       <c r="I166" t="n">
         <v>6960</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6850</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,12 +6804,12 @@
         <v>5899.45580262</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>7075</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6850</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,12 +6843,12 @@
         <v>5899.45580262</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>7075</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6850</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6912,12 +6882,12 @@
         <v>5899.45580262</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>7075</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6850</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,12 +6921,12 @@
         <v>5899.02380262</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>7075</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6850</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6990,12 +6960,12 @@
         <v>5899.22380262</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>7055</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6850</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7029,12 +6999,12 @@
         <v>5899.22380262</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>7060</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6850</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,12 +7038,12 @@
         <v>5899.42380262</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>7060</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6850</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7107,12 +7077,12 @@
         <v>6194.28230262</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>7080</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6850</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7146,12 +7116,12 @@
         <v>6194.48230262</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>7095</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6850</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7185,12 +7155,12 @@
         <v>4428.373302620001</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>7110</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6850</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7224,12 +7194,12 @@
         <v>4482.061802620001</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>6890</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6850</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,12 +7233,12 @@
         <v>4481.721802620001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6850</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7302,12 +7272,12 @@
         <v>4481.62180262</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>6955</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6850</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7341,12 +7311,12 @@
         <v>4487.82180262</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>6940</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6850</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7380,12 +7350,12 @@
         <v>4488.02170262</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>6945</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6850</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7419,12 +7389,12 @@
         <v>4488.02170262</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>6950</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>6850</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7458,12 +7428,12 @@
         <v>4487.82170262</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>6950</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6850</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7497,12 +7467,12 @@
         <v>4487.92170262</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>6945</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6850</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7536,12 +7506,12 @@
         <v>4323.36170262</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>6975</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6850</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7580,7 +7550,9 @@
       <c r="I186" t="n">
         <v>6945</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6850</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,7 +7591,9 @@
       <c r="I187" t="n">
         <v>6890</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6850</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7658,7 +7632,9 @@
       <c r="I188" t="n">
         <v>6925</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>6850</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,7 +7673,9 @@
       <c r="I189" t="n">
         <v>6895</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>6850</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7736,7 +7714,9 @@
       <c r="I190" t="n">
         <v>6940</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>6850</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7775,7 +7755,9 @@
       <c r="I191" t="n">
         <v>6900</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6850</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7814,7 +7796,9 @@
       <c r="I192" t="n">
         <v>6890</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>6850</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,7 +7837,9 @@
       <c r="I193" t="n">
         <v>6890</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6850</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7892,7 +7878,9 @@
       <c r="I194" t="n">
         <v>6895</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6850</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7931,7 +7919,9 @@
       <c r="I195" t="n">
         <v>7015</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6850</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7965,12 +7955,12 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>6900</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6850</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8004,12 +7994,12 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>7015</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>6850</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8043,12 +8033,12 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>7015</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>6850</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8082,12 +8072,12 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>7015</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>6850</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8121,12 +8111,12 @@
         <v>4482.22030262</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>7015</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>6850</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8160,12 +8150,12 @@
         <v>4563.76340262</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6850</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8199,12 +8189,12 @@
         <v>4188.604402620001</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>7045</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6850</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8238,12 +8228,12 @@
         <v>4188.604402620001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>6995</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6850</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8277,12 +8267,12 @@
         <v>4290.215902620001</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>6995</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>6850</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8316,12 +8306,12 @@
         <v>4339.220102620001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>7035</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6850</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8355,12 +8345,12 @@
         <v>4609.553902620001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>7050</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6850</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8394,12 +8384,12 @@
         <v>4504.553902620001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>7060</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6850</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8433,12 +8423,12 @@
         <v>4504.653902620002</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>7055</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6850</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,12 +8462,12 @@
         <v>4504.453902620002</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>7085</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6850</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,7 +8504,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6850</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,12 +8540,12 @@
         <v>4722.398602620002</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>7070</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6850</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,12 +8579,12 @@
         <v>4722.498602620002</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>7090</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6850</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,12 +8618,12 @@
         <v>4722.498602620002</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>7095</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6850</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8668,7 +8660,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6850</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8705,7 +8699,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6850</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8742,7 +8738,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6850</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8779,7 +8777,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6850</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8816,7 +8816,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6850</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8853,7 +8855,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6850</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8890,7 +8894,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>6850</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8927,7 +8933,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6850</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8964,7 +8972,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>6850</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9001,7 +9011,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6850</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9038,7 +9050,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6850</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9075,7 +9089,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>6850</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9112,7 +9128,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>6850</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9149,7 +9167,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>6850</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9186,7 +9206,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>6850</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,7 +9245,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>6850</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9260,7 +9284,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>6850</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9294,12 +9320,12 @@
         <v>5682.861902620001</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>7165</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>6850</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9333,12 +9359,12 @@
         <v>5683.061902620001</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>7160</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>6850</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,12 +9398,12 @@
         <v>5672.220402620001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>7170</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>6850</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,7 +9440,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>6850</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9448,12 +9476,12 @@
         <v>5674.64050262</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>7155</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>6850</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9487,12 +9515,12 @@
         <v>5674.84050262</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>7150</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>6850</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9526,12 +9554,12 @@
         <v>5686.53580262</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>7185</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>6850</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9565,12 +9593,12 @@
         <v>5686.635802620001</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>7190</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>6850</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9604,12 +9632,12 @@
         <v>5686.53580262</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>7205</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>6850</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9643,12 +9671,12 @@
         <v>5607.547702620001</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>7200</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>6850</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9682,12 +9710,12 @@
         <v>5607.547702620001</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>7185</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>6850</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9721,12 +9749,12 @@
         <v>5607.647702620001</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>7185</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>6850</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9760,12 +9788,12 @@
         <v>5919.914902620001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>7200</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>6850</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9802,7 +9830,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>6850</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9839,7 +9869,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>6850</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9876,7 +9908,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>6850</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9913,7 +9947,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>6850</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9950,7 +9986,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>6850</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9987,7 +10025,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>6850</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10024,7 +10064,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>6850</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10061,7 +10103,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>6850</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10098,7 +10142,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>6850</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10135,7 +10181,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>6850</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10172,7 +10220,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>6850</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10209,7 +10259,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>6850</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10246,7 +10298,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>6850</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10283,7 +10337,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>6850</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10317,12 +10373,12 @@
         <v>6536.153590600001</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>7145</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>6850</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10359,7 +10415,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>6850</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10396,7 +10454,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>6850</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10433,7 +10493,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>6850</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,7 +10532,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>6850</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10507,7 +10571,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>6850</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10544,7 +10610,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>6850</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10581,7 +10649,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>6850</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10618,7 +10688,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>6850</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10655,7 +10727,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>6850</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10692,7 +10766,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>6850</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10729,7 +10805,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>6850</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10766,7 +10844,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>6850</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10803,7 +10883,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>6850</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10840,7 +10922,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>6850</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10877,7 +10961,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>6850</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10914,7 +11000,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>6850</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10951,7 +11039,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>6850</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10988,7 +11078,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>6850</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11025,7 +11117,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>6850</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11062,7 +11156,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>6850</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11099,7 +11195,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6850</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11136,7 +11234,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6850</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11173,7 +11273,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>6850</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11210,7 +11312,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6850</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11247,7 +11351,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6850</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11284,7 +11390,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6850</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11321,7 +11429,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6850</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11358,7 +11468,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6850</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,7 +11507,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6850</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11432,7 +11546,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6850</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11469,7 +11585,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>6850</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11506,7 +11624,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>6850</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11543,7 +11663,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>6850</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11580,7 +11702,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>6850</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11617,7 +11741,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6850</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11654,7 +11780,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6850</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11691,7 +11819,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6850</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11728,7 +11858,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6850</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11765,7 +11897,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6850</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11802,7 +11936,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6850</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11839,7 +11975,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6850</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11876,7 +12014,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6850</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11913,7 +12053,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6850</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11950,7 +12092,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6850</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11987,7 +12131,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6850</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12024,7 +12170,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6850</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12061,7 +12209,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6850</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12098,7 +12248,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6850</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12135,7 +12287,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6850</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12172,7 +12326,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6850</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12209,7 +12365,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6850</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12246,7 +12404,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6850</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12283,7 +12443,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6850</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12320,7 +12482,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6850</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12357,7 +12521,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6850</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12394,7 +12560,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6850</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12431,7 +12599,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6850</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12468,7 +12638,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6850</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12505,7 +12677,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6850</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12542,7 +12716,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6850</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12579,7 +12755,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6850</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12616,7 +12794,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6850</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12653,7 +12833,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6850</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12690,7 +12872,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6850</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12724,19 +12908,23 @@
         <v>18532.22121686</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6850</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+        <v>1.129306569343066</v>
+      </c>
+      <c r="M323" t="n">
+        <v>1.08029197080292</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12761,15 +12949,11 @@
         <v>19608.71161686</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12798,15 +12982,11 @@
         <v>19355.29431686</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12835,15 +13015,11 @@
         <v>19958.391602</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12872,15 +13048,11 @@
         <v>21541.527402</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12909,15 +13081,11 @@
         <v>20883.56520199999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12946,15 +13114,11 @@
         <v>20095.44900199999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12983,15 +13147,11 @@
         <v>19996.35190199999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13020,15 +13180,11 @@
         <v>21344.87930199999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13057,15 +13213,11 @@
         <v>21654.65880199999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13094,15 +13246,11 @@
         <v>21573.18260199999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13131,15 +13279,11 @@
         <v>21124.54710199999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13168,15 +13312,11 @@
         <v>21160.59370199999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13205,15 +13345,11 @@
         <v>21429.737402</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13242,15 +13378,11 @@
         <v>22677.51930199999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13279,15 +13411,11 @@
         <v>21292.00920199999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13316,15 +13444,11 @@
         <v>21114.25032251999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13353,15 +13477,11 @@
         <v>20776.23152251999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13390,15 +13510,11 @@
         <v>20409.68082251999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13427,15 +13543,11 @@
         <v>20570.77412251999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13464,15 +13576,11 @@
         <v>19650.11482251999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13501,15 +13609,11 @@
         <v>19195.01682251999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13538,15 +13642,11 @@
         <v>19177.37322251999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13575,15 +13675,11 @@
         <v>16929.03692251999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13612,15 +13708,11 @@
         <v>15815.89552251999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13649,15 +13741,11 @@
         <v>16077.71672251999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13686,15 +13774,11 @@
         <v>16073.52292251999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13723,15 +13807,11 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13760,15 +13840,11 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13797,15 +13873,11 @@
         <v>16173.96362251999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13834,15 +13906,11 @@
         <v>17336.42832251999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13871,15 +13939,11 @@
         <v>15913.75592251999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13908,15 +13972,11 @@
         <v>16019.51582251999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13949,11 +14009,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13982,15 +14038,11 @@
         <v>16019.58262251999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14019,15 +14071,11 @@
         <v>16611.14191319999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14056,15 +14104,11 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14093,15 +14137,11 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14130,15 +14170,11 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14167,15 +14203,11 @@
         <v>16249.11431319999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14204,15 +14236,11 @@
         <v>16244.53851319999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14241,15 +14269,11 @@
         <v>16148.66151319999</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14282,11 +14306,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14315,15 +14335,11 @@
         <v>16043.39141319999</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14352,15 +14368,11 @@
         <v>16047.95141319999</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14389,15 +14401,11 @@
         <v>16055.13301319999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14430,11 +14438,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14467,11 +14471,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14504,11 +14504,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14541,11 +14537,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14578,11 +14570,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14615,11 +14603,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14652,11 +14636,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14689,11 +14669,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14726,11 +14702,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14763,11 +14735,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14800,11 +14768,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14837,11 +14801,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14874,11 +14834,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14911,11 +14867,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14948,11 +14900,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14985,11 +14933,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15022,11 +14966,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15059,11 +14999,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15096,11 +15032,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15133,11 +15065,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15170,11 +15098,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15207,11 +15131,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15244,11 +15164,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15281,11 +15197,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15318,11 +15230,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15355,11 +15263,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15392,11 +15296,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15429,11 +15329,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15362,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15503,11 +15395,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15540,11 +15428,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15573,15 +15457,11 @@
         <v>19252.73821319999</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15610,15 +15490,11 @@
         <v>19249.58211319999</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15647,15 +15523,11 @@
         <v>19419.27641319999</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15684,15 +15556,11 @@
         <v>19091.56471319999</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15721,15 +15589,11 @@
         <v>19091.6296132</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15758,15 +15622,11 @@
         <v>18914.70181319999</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15795,15 +15655,11 @@
         <v>18769.45431319999</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15832,15 +15688,11 @@
         <v>18824.26761319999</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15869,15 +15721,11 @@
         <v>18130.08181319999</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15910,11 +15758,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15947,11 +15791,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15984,11 +15824,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16021,11 +15857,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16058,11 +15890,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16095,11 +15923,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16132,11 +15956,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16169,11 +15989,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16206,11 +16022,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16243,11 +16055,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16280,11 +16088,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16317,11 +16121,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16354,11 +16154,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16391,11 +16187,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16428,11 +16220,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16465,11 +16253,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16502,11 +16286,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16539,11 +16319,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16576,11 +16352,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16613,11 +16385,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16650,11 +16418,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +16451,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16724,11 +16484,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16761,11 +16517,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16798,11 +16550,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16835,11 +16583,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16872,11 +16616,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16909,11 +16649,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16946,11 +16682,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16983,11 +16715,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17020,11 +16748,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17057,11 +16781,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17094,11 +16814,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17131,11 +16847,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17168,11 +16880,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17205,11 +16913,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17242,11 +16946,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17279,11 +16979,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17316,11 +17012,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17353,11 +17045,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17390,11 +17078,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17427,11 +17111,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17464,11 +17144,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17501,11 +17177,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17538,11 +17210,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17575,11 +17243,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17612,11 +17276,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17649,11 +17309,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17686,11 +17342,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17723,11 +17375,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17760,11 +17408,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17797,11 +17441,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17834,11 +17474,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17871,11 +17507,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +17540,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17945,11 +17573,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17982,11 +17606,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18015,15 +17635,11 @@
         <v>17499.18864673</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18056,11 +17672,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18093,11 +17705,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18130,11 +17738,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18167,11 +17771,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18204,11 +17804,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18241,11 +17837,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18278,11 +17870,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18315,11 +17903,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18352,11 +17936,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18389,11 +17969,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18426,11 +18002,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18463,11 +18035,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18500,11 +18068,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18537,11 +18101,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18574,11 +18134,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18611,11 +18167,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18648,11 +18200,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18685,11 +18233,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18722,11 +18266,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18759,11 +18299,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18796,11 +18332,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18833,11 +18365,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18870,11 +18398,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18907,11 +18431,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18944,11 +18464,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18981,11 +18497,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19018,11 +18530,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19055,11 +18563,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19092,11 +18596,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +18629,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19166,11 +18662,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19203,11 +18695,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19240,11 +18728,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19277,11 +18761,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19310,16 +18790,14 @@
         <v>33762.4687406</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
       <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
@@ -19378,7 +18856,7 @@
         <v>33548.01084060001</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19774,7 +19252,7 @@
         <v>35100.3333553</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19807,7 +19285,7 @@
         <v>34579.78454443</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19906,7 +19384,7 @@
         <v>34560.31664443</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19939,7 +19417,7 @@
         <v>34478.80064443</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19972,7 +19450,7 @@
         <v>34516.59364443</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20005,7 +19483,7 @@
         <v>34313.13934443</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20038,7 +19516,7 @@
         <v>34148.98174443</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20071,7 +19549,7 @@
         <v>33872.05344443</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20104,7 +19582,7 @@
         <v>33872.05344443</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20137,7 +19615,7 @@
         <v>33802.75588611</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20170,7 +19648,7 @@
         <v>33590.17392266</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20203,7 +19681,7 @@
         <v>34166.52724624</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20236,7 +19714,7 @@
         <v>33946.20714624</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20269,7 +19747,7 @@
         <v>34440.19575056</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20302,7 +19780,7 @@
         <v>34887.72444624</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20335,7 +19813,7 @@
         <v>34836.02054624</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20368,7 +19846,7 @@
         <v>34950.69554624</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20401,7 +19879,7 @@
         <v>34950.69554624</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20434,7 +19912,7 @@
         <v>34870.51574624</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20467,7 +19945,7 @@
         <v>35043.60454624</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20500,7 +19978,7 @@
         <v>35032.37384624</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20533,7 +20011,7 @@
         <v>35032.25244624</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20566,7 +20044,7 @@
         <v>34931.60244623999</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20599,7 +20077,7 @@
         <v>34302.57754624</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20632,7 +20110,7 @@
         <v>33344.58584624</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20698,7 +20176,7 @@
         <v>33034.06434624</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20995,7 +20473,7 @@
         <v>30687.51834624</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21028,7 +20506,7 @@
         <v>30072.44604624</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21061,7 +20539,7 @@
         <v>29930.77184624</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21094,7 +20572,7 @@
         <v>30330.71754624</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21127,7 +20605,7 @@
         <v>29806.79594624</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21160,7 +20638,7 @@
         <v>29806.79594624</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21193,7 +20671,7 @@
         <v>29807.20284624</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21226,7 +20704,7 @@
         <v>29807.26724624</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21259,7 +20737,7 @@
         <v>29682.64304624</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21292,7 +20770,7 @@
         <v>29930.92544624</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21325,7 +20803,7 @@
         <v>29786.53514624</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21358,7 +20836,7 @@
         <v>29907.01484624</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -27166,7 +26644,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27199,7 +26677,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27232,7 +26710,7 @@
         <v>24275.21681144002</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27331,7 +26809,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27364,7 +26842,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27397,7 +26875,7 @@
         <v>24203.40851144001</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27430,7 +26908,7 @@
         <v>24236.61821144001</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27463,7 +26941,7 @@
         <v>24236.41811144001</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27496,7 +26974,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27529,7 +27007,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27562,7 +27040,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27628,7 +27106,7 @@
         <v>24216.72041144001</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -30697,7 +30175,7 @@
         <v>22151.16416702001</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30730,7 +30208,7 @@
         <v>22388.34477165001</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30763,7 +30241,7 @@
         <v>22065.49277165001</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30796,7 +30274,7 @@
         <v>22043.27277165001</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30829,7 +30307,7 @@
         <v>21993.39277165001</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30862,7 +30340,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30895,7 +30373,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30928,7 +30406,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30961,7 +30439,7 @@
         <v>22033.39277165001</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30994,7 +30472,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31027,7 +30505,7 @@
         <v>21697.09887165001</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31060,7 +30538,7 @@
         <v>21897.47677165001</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31093,7 +30571,7 @@
         <v>21883.54957165001</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31126,7 +30604,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31159,7 +30637,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31192,7 +30670,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31225,7 +30703,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31258,7 +30736,7 @@
         <v>21902.33527165001</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31291,7 +30769,7 @@
         <v>21902.23527165001</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31324,7 +30802,7 @@
         <v>21902.13527165002</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31357,7 +30835,7 @@
         <v>21902.03527165002</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31390,7 +30868,7 @@
         <v>21901.83527165002</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31423,7 +30901,7 @@
         <v>21871.83527165002</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31456,7 +30934,7 @@
         <v>21872.44357165002</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31489,7 +30967,7 @@
         <v>21676.30877165002</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31522,7 +31000,7 @@
         <v>21676.85777165001</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31555,7 +31033,7 @@
         <v>21506.85777165001</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31786,7 +31264,7 @@
         <v>22274.62917165001</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31819,7 +31297,7 @@
         <v>22074.63017165001</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32721,6 +32199,6 @@
       <c r="M907" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BTG.xlsx
+++ b/BackTest/2020-01-12 BackTest BTG.xlsx
@@ -451,7 +451,7 @@
         <v>3609.89223889</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>4252.639838890001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7195</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +634,17 @@
         <v>3729.258138890001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7220</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +677,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +714,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +751,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +788,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +825,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +862,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +895,17 @@
         <v>4749.881238890001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7230</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +934,17 @@
         <v>5917.74303889</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7245</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +977,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1014,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1051,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1088,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1125,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1162,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1199,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1236,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1273,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1310,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1347,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1380,17 @@
         <v>5782.95660262</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7120</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1419,17 @@
         <v>5732.57960262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7150</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1462,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1495,17 @@
         <v>5864.98350262</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7120</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1534,17 @@
         <v>5524.124502619999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7145</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1573,17 @@
         <v>5610.281302619999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6900</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1612,17 @@
         <v>5639.490302619999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6905</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1651,17 @@
         <v>5639.277702619999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7055</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1690,17 @@
         <v>5752.421602619999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6910</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1729,17 @@
         <v>5545.385502619999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6975</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1768,17 @@
         <v>5535.385502619999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6930</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1807,17 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6920</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1846,17 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6910</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1885,17 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6910</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1924,17 @@
         <v>5460.385502619999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6910</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1963,17 @@
         <v>5408.818802619999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6880</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1809,10 +2007,12 @@
       <c r="I43" t="n">
         <v>6850</v>
       </c>
-      <c r="J43" t="n">
-        <v>6850</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,15 +2041,15 @@
         <v>5585.740502619999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6905</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1880,15 +2080,15 @@
         <v>5538.194702619999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6930</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -1919,12 +2119,12 @@
         <v>5555.363502619999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6830</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1958,12 +2158,12 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6870</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1997,12 +2197,12 @@
         <v>5662.236702619999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6950</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2036,12 +2236,12 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6945</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,9 +2280,7 @@
       <c r="I50" t="n">
         <v>6995</v>
       </c>
-      <c r="J50" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,9 +2317,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2155,14 +2351,10 @@
         <v>5609.061702619999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6975</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2196,14 +2388,10 @@
         <v>5609.061702619999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6950</v>
-      </c>
-      <c r="J53" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2237,14 +2425,10 @@
         <v>5649.588602619999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6950</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2278,14 +2462,10 @@
         <v>5681.371902619999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6975</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2319,14 +2499,10 @@
         <v>5681.972002619998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7000</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2363,9 +2539,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2399,14 +2573,10 @@
         <v>5654.154302619999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6990</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,14 +2610,10 @@
         <v>5654.049302619999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2481,14 +2647,10 @@
         <v>5653.918402619999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6955</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,14 +2684,10 @@
         <v>5654.028402619999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6920</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,14 +2721,10 @@
         <v>5653.602102619999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6970</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,14 +2758,10 @@
         <v>5653.689502619999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6940</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,14 +2795,10 @@
         <v>5653.520702619999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,14 +2832,10 @@
         <v>5654.520702619999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6930</v>
-      </c>
-      <c r="J65" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,14 +2869,10 @@
         <v>5653.520702619999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6995</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,14 +2906,10 @@
         <v>5707.716802619999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6975</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,14 +2943,10 @@
         <v>5707.716802619999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,14 +2980,10 @@
         <v>5708.716802619999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J69" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2891,14 +3017,10 @@
         <v>5708.716802619999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6990</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,14 +3054,10 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6990</v>
-      </c>
-      <c r="J71" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,14 +3091,10 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,14 +3128,10 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J73" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,14 +3165,10 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J74" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3096,14 +3202,10 @@
         <v>5545.498902619999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3137,14 +3239,10 @@
         <v>5864.274902619999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6950</v>
-      </c>
-      <c r="J76" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,14 +3276,10 @@
         <v>5864.374902619999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J77" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3222,9 +3316,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,14 +3350,10 @@
         <v>5539.685502619999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6990</v>
-      </c>
-      <c r="J79" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3299,14 +3387,10 @@
         <v>5539.685502619999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6985</v>
-      </c>
-      <c r="J80" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,9 +3427,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3382,9 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,9 +3501,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,9 +3538,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3499,9 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,12 +3609,12 @@
         <v>5579.70320262</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,9 +3653,7 @@
       <c r="I87" t="n">
         <v>6955</v>
       </c>
-      <c r="J87" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3615,12 +3687,12 @@
         <v>5579.80320262</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,12 +3726,12 @@
         <v>5579.80320262</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3693,12 +3765,12 @@
         <v>5579.80320262</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3732,12 +3804,12 @@
         <v>5579.80320262</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3771,12 +3843,12 @@
         <v>5524.54650262</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3810,12 +3882,12 @@
         <v>5524.33310262</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6960</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3854,9 +3926,7 @@
       <c r="I94" t="n">
         <v>6955</v>
       </c>
-      <c r="J94" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,9 +3965,7 @@
       <c r="I95" t="n">
         <v>6960</v>
       </c>
-      <c r="J95" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3936,9 +4004,7 @@
       <c r="I96" t="n">
         <v>6960</v>
       </c>
-      <c r="J96" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3977,9 +4043,7 @@
       <c r="I97" t="n">
         <v>6960</v>
       </c>
-      <c r="J97" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,9 +4082,7 @@
       <c r="I98" t="n">
         <v>6980</v>
       </c>
-      <c r="J98" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,9 +4121,7 @@
       <c r="I99" t="n">
         <v>6985</v>
       </c>
-      <c r="J99" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4100,9 +4160,7 @@
       <c r="I100" t="n">
         <v>7000</v>
       </c>
-      <c r="J100" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4141,9 +4199,7 @@
       <c r="I101" t="n">
         <v>7015</v>
       </c>
-      <c r="J101" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,9 +4238,7 @@
       <c r="I102" t="n">
         <v>7020</v>
       </c>
-      <c r="J102" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,9 +4275,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,9 +4314,7 @@
       <c r="I104" t="n">
         <v>6975</v>
       </c>
-      <c r="J104" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4301,9 +4351,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,9 +4390,7 @@
       <c r="I106" t="n">
         <v>6980</v>
       </c>
-      <c r="J106" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4378,14 +4424,10 @@
         <v>6062.306302619998</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>7035</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,14 +4461,10 @@
         <v>6063.306302619998</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,14 +4498,10 @@
         <v>6039.653802619998</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>7030</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,14 +4535,10 @@
         <v>6039.653802619998</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>6980</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4547,9 +4577,7 @@
       <c r="I111" t="n">
         <v>6980</v>
       </c>
-      <c r="J111" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4588,9 +4616,7 @@
       <c r="I112" t="n">
         <v>6955</v>
       </c>
-      <c r="J112" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4629,9 +4655,7 @@
       <c r="I113" t="n">
         <v>7005</v>
       </c>
-      <c r="J113" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,14 +4689,10 @@
         <v>6041.231502619998</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J114" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,14 +4726,10 @@
         <v>6041.231502619998</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>7015</v>
-      </c>
-      <c r="J115" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4752,9 +4768,7 @@
       <c r="I116" t="n">
         <v>7015</v>
       </c>
-      <c r="J116" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,14 +4802,10 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>6975</v>
-      </c>
-      <c r="J117" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,14 +4839,10 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4873,9 +4879,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,14 +4913,10 @@
         <v>6038.042102619997</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J120" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,14 +4950,10 @@
         <v>6037.842102619998</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>7005</v>
-      </c>
-      <c r="J121" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,14 +4987,10 @@
         <v>6037.942102619998</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>6985</v>
-      </c>
-      <c r="J122" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,14 +5024,10 @@
         <v>6037.942102619998</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>7005</v>
-      </c>
-      <c r="J123" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,14 +5061,10 @@
         <v>6030.094602619998</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>7005</v>
-      </c>
-      <c r="J124" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,14 +5098,10 @@
         <v>5981.897602619998</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>6975</v>
-      </c>
-      <c r="J125" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,9 +5140,7 @@
       <c r="I126" t="n">
         <v>6970</v>
       </c>
-      <c r="J126" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5201,9 +5179,7 @@
       <c r="I127" t="n">
         <v>6965</v>
       </c>
-      <c r="J127" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5242,9 +5218,7 @@
       <c r="I128" t="n">
         <v>6965</v>
       </c>
-      <c r="J128" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,9 +5257,7 @@
       <c r="I129" t="n">
         <v>6950</v>
       </c>
-      <c r="J129" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5324,9 +5296,7 @@
       <c r="I130" t="n">
         <v>6950</v>
       </c>
-      <c r="J130" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,9 +5335,7 @@
       <c r="I131" t="n">
         <v>6965</v>
       </c>
-      <c r="J131" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5406,9 +5374,7 @@
       <c r="I132" t="n">
         <v>6970</v>
       </c>
-      <c r="J132" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5447,9 +5413,7 @@
       <c r="I133" t="n">
         <v>6970</v>
       </c>
-      <c r="J133" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5488,9 +5452,7 @@
       <c r="I134" t="n">
         <v>6960</v>
       </c>
-      <c r="J134" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,9 +5491,7 @@
       <c r="I135" t="n">
         <v>7020</v>
       </c>
-      <c r="J135" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5570,9 +5530,7 @@
       <c r="I136" t="n">
         <v>6975</v>
       </c>
-      <c r="J136" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5611,9 +5569,7 @@
       <c r="I137" t="n">
         <v>7020</v>
       </c>
-      <c r="J137" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5650,9 +5606,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5686,14 +5640,10 @@
         <v>6002.223702619998</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>7060</v>
-      </c>
-      <c r="J139" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,14 +5677,10 @@
         <v>5996.123702619998</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>7060</v>
-      </c>
-      <c r="J140" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5768,14 +5714,10 @@
         <v>5996.123702619998</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>7050</v>
-      </c>
-      <c r="J141" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,9 +5754,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,9 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,9 +5828,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,9 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,9 +5902,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,9 +5939,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,9 +5976,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,9 +6013,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,9 +6050,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,9 +6087,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,9 +6124,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,9 +6161,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,9 +6198,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,9 +6235,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,9 +6272,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6394,14 +6306,10 @@
         <v>5943.44420262</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6435,14 +6343,10 @@
         <v>5941.098202620001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J158" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,14 +6380,10 @@
         <v>5941.198202620001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>7005</v>
-      </c>
-      <c r="J159" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,14 +6417,10 @@
         <v>5941.198202620001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J160" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6558,14 +6454,10 @@
         <v>5941.398202620001</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J161" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6599,14 +6491,10 @@
         <v>5941.098202620001</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>7045</v>
-      </c>
-      <c r="J162" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6640,14 +6528,10 @@
         <v>5934.006002620001</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>7035</v>
-      </c>
-      <c r="J163" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6681,14 +6565,10 @@
         <v>5934.006002620001</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J164" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6722,14 +6602,10 @@
         <v>5870.90510262</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>7010</v>
-      </c>
-      <c r="J165" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6763,14 +6639,10 @@
         <v>5899.45580262</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>6960</v>
-      </c>
-      <c r="J166" t="n">
-        <v>6850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6807,9 +6679,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,9 +6716,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,9 +6753,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6924,9 +6790,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6963,9 +6827,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,9 +6864,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,9 +6901,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7080,9 +6938,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,9 +6975,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7158,9 +7012,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,9 +7049,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7236,9 +7086,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,9 +7123,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,9 +7160,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,9 +7197,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,9 +7234,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,9 +7271,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7470,9 +7308,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,9 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7550,9 +7384,7 @@
       <c r="I186" t="n">
         <v>6945</v>
       </c>
-      <c r="J186" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7591,9 +7423,7 @@
       <c r="I187" t="n">
         <v>6890</v>
       </c>
-      <c r="J187" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7632,9 +7462,7 @@
       <c r="I188" t="n">
         <v>6925</v>
       </c>
-      <c r="J188" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,9 +7501,7 @@
       <c r="I189" t="n">
         <v>6895</v>
       </c>
-      <c r="J189" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7714,9 +7540,7 @@
       <c r="I190" t="n">
         <v>6940</v>
       </c>
-      <c r="J190" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7755,9 +7579,7 @@
       <c r="I191" t="n">
         <v>6900</v>
       </c>
-      <c r="J191" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7796,9 +7618,7 @@
       <c r="I192" t="n">
         <v>6890</v>
       </c>
-      <c r="J192" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7837,9 +7657,7 @@
       <c r="I193" t="n">
         <v>6890</v>
       </c>
-      <c r="J193" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7878,9 +7696,7 @@
       <c r="I194" t="n">
         <v>6895</v>
       </c>
-      <c r="J194" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7919,9 +7735,7 @@
       <c r="I195" t="n">
         <v>7015</v>
       </c>
-      <c r="J195" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7955,12 +7769,12 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>6900</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7994,12 +7808,12 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>7015</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,12 +7847,12 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>7015</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8072,12 +7886,12 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>7015</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8111,12 +7925,12 @@
         <v>4482.22030262</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>7015</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8153,9 +7967,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,9 +8004,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8231,9 +8041,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8270,9 +8078,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8309,9 +8115,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,9 +8152,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8387,9 +8189,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8426,9 +8226,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8465,9 +8263,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8504,9 +8300,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,9 +8337,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8582,9 +8374,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8621,9 +8411,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,9 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,9 +8485,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8738,9 +8522,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8777,9 +8559,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8816,9 +8596,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8855,9 +8633,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8894,9 +8670,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,9 +8707,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8972,9 +8744,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9011,9 +8781,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9050,9 +8818,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9089,9 +8855,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9128,9 +8892,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9167,9 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9206,9 +8966,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9245,9 +9003,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9284,9 +9040,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9323,9 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9362,9 +9114,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9401,9 +9151,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9440,9 +9188,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9479,9 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9518,9 +9262,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9557,9 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9596,9 +9336,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9635,9 +9373,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9674,9 +9410,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9713,9 +9447,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,9 +9484,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,9 +9521,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9830,9 +9558,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9869,9 +9595,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9908,9 +9632,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,9 +9669,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,9 +9706,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10025,9 +9743,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10064,9 +9780,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,9 +9817,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10142,9 +9854,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,9 +9891,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10220,9 +9928,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10259,9 +9965,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10298,9 +10002,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10337,9 +10039,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10376,9 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10415,9 +10113,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,9 +10150,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,9 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10532,9 +10224,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10571,9 +10261,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10610,9 +10298,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10649,9 +10335,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10688,9 +10372,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10727,9 +10409,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10766,9 +10446,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10805,9 +10483,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10844,9 +10520,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10883,9 +10557,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10922,9 +10594,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10961,9 +10631,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11000,9 +10668,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11039,9 +10705,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11078,9 +10742,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11117,9 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11156,9 +10816,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11195,9 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11234,9 +10890,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11273,9 +10927,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11312,9 +10964,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11351,9 +11001,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11390,9 +11038,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11429,9 +11075,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11468,9 +11112,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11507,9 +11149,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11546,9 +11186,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11585,9 +11223,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11624,9 +11260,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11663,9 +11297,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11702,9 +11334,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11741,9 +11371,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11780,9 +11408,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11819,9 +11445,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11858,9 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11897,9 +11519,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11936,9 +11556,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11975,9 +11593,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12014,9 +11630,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12053,9 +11667,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12092,9 +11704,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12131,9 +11741,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12170,9 +11778,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12209,9 +11815,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12248,9 +11852,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12287,9 +11889,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12326,9 +11926,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12365,9 +11963,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12404,9 +12000,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12443,9 +12037,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12482,9 +12074,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12521,9 +12111,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12560,9 +12148,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12599,9 +12185,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12638,9 +12222,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12677,9 +12259,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12716,9 +12296,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12755,9 +12333,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12794,9 +12370,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12833,9 +12407,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12872,9 +12444,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12908,23 +12478,19 @@
         <v>18532.22121686</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>6850</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L323" t="n">
-        <v>1.129306569343066</v>
-      </c>
-      <c r="M323" t="n">
-        <v>1.08029197080292</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12949,11 +12515,15 @@
         <v>19608.71161686</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12982,11 +12552,15 @@
         <v>19355.29431686</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13015,11 +12589,15 @@
         <v>19958.391602</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13048,11 +12626,15 @@
         <v>21541.527402</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13081,11 +12663,15 @@
         <v>20883.56520199999</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13114,11 +12700,15 @@
         <v>20095.44900199999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13147,11 +12737,15 @@
         <v>19996.35190199999</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13180,11 +12774,15 @@
         <v>21344.87930199999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13213,11 +12811,15 @@
         <v>21654.65880199999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13246,11 +12848,15 @@
         <v>21573.18260199999</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13279,11 +12885,15 @@
         <v>21124.54710199999</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13312,11 +12922,15 @@
         <v>21160.59370199999</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13345,11 +12959,15 @@
         <v>21429.737402</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13378,11 +12996,15 @@
         <v>22677.51930199999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13411,11 +13033,15 @@
         <v>21292.00920199999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13444,11 +13070,15 @@
         <v>21114.25032251999</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13477,11 +13107,15 @@
         <v>20776.23152251999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13510,11 +13144,15 @@
         <v>20409.68082251999</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13543,11 +13181,15 @@
         <v>20570.77412251999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13576,11 +13218,15 @@
         <v>19650.11482251999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13609,11 +13255,15 @@
         <v>19195.01682251999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13642,11 +13292,15 @@
         <v>19177.37322251999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13675,11 +13329,15 @@
         <v>16929.03692251999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13708,11 +13366,15 @@
         <v>15815.89552251999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13741,11 +13403,15 @@
         <v>16077.71672251999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13774,11 +13440,15 @@
         <v>16073.52292251999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13807,11 +13477,15 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13840,11 +13514,15 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13873,11 +13551,15 @@
         <v>16173.96362251999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +13588,15 @@
         <v>17336.42832251999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13939,11 +13625,15 @@
         <v>15913.75592251999</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13972,11 +13662,15 @@
         <v>16019.51582251999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14009,7 +13703,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14038,11 +13736,15 @@
         <v>16019.58262251999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14071,11 +13773,15 @@
         <v>16611.14191319999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14104,11 +13810,15 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14137,11 +13847,15 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14170,11 +13884,15 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14203,11 +13921,15 @@
         <v>16249.11431319999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14236,11 +13958,15 @@
         <v>16244.53851319999</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14269,11 +13995,15 @@
         <v>16148.66151319999</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14306,7 +14036,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14335,11 +14069,15 @@
         <v>16043.39141319999</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14368,11 +14106,15 @@
         <v>16047.95141319999</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14401,11 +14143,15 @@
         <v>16055.13301319999</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14438,7 +14184,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14471,7 +14221,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14504,7 +14258,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14537,7 +14295,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14570,7 +14332,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14603,7 +14369,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14636,7 +14406,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +14443,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +14480,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14735,7 +14517,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14768,7 +14554,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14801,7 +14591,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14834,7 +14628,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14867,7 +14665,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14900,7 +14702,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14933,7 +14739,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14966,7 +14776,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14999,7 +14813,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15032,7 +14850,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15065,7 +14887,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15098,7 +14924,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15131,7 +14961,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15164,7 +14998,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15197,7 +15035,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15230,7 +15072,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +15109,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15296,7 +15146,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15329,7 +15183,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15362,7 +15220,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15395,7 +15257,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15428,7 +15294,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15457,11 +15327,15 @@
         <v>19252.73821319999</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15490,11 +15364,15 @@
         <v>19249.58211319999</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15523,11 +15401,15 @@
         <v>19419.27641319999</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15556,11 +15438,15 @@
         <v>19091.56471319999</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15589,11 +15475,15 @@
         <v>19091.6296132</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15622,11 +15512,15 @@
         <v>18914.70181319999</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15655,11 +15549,15 @@
         <v>18769.45431319999</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15688,11 +15586,15 @@
         <v>18824.26761319999</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15721,11 +15623,15 @@
         <v>18130.08181319999</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15758,7 +15664,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15791,7 +15701,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15824,7 +15738,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15857,7 +15775,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15890,7 +15812,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15923,7 +15849,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15956,7 +15886,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15989,7 +15923,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16022,7 +15960,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16055,7 +15997,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16088,7 +16034,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16121,7 +16071,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16154,7 +16108,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +16145,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16220,7 +16182,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16253,7 +16219,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16286,7 +16256,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16319,7 +16293,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16352,7 +16330,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16385,7 +16367,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +16404,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16451,7 +16441,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16484,7 +16478,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16517,7 +16515,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16550,7 +16552,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16583,7 +16589,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16616,7 +16626,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16649,7 +16663,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16682,7 +16700,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16715,7 +16737,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16748,7 +16774,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16781,7 +16811,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16814,7 +16848,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16847,7 +16885,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16880,7 +16922,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16913,7 +16959,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16946,7 +16996,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +17033,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17012,7 +17070,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17045,7 +17107,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17078,7 +17144,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17111,7 +17181,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17144,7 +17218,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17177,7 +17255,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17210,7 +17292,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17243,7 +17329,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17276,7 +17366,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17309,7 +17403,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17342,7 +17440,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17375,7 +17477,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17408,7 +17514,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17441,7 +17551,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17474,7 +17588,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17507,7 +17625,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17540,7 +17662,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17573,7 +17699,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17606,7 +17736,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17635,11 +17769,15 @@
         <v>17499.18864673</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17672,7 +17810,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17705,7 +17847,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17738,7 +17884,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17771,7 +17921,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17804,7 +17958,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17837,7 +17995,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17870,7 +18032,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17903,7 +18069,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17936,7 +18106,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17965,14 +18139,16 @@
         <v>35248.69132931</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="inlineStr"/>
     </row>
     <row r="477">
@@ -17998,7 +18174,7 @@
         <v>35248.69132931</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18064,7 +18240,7 @@
         <v>33574.4341594</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18097,7 +18273,7 @@
         <v>32605.4736594</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18130,7 +18306,7 @@
         <v>33447.59596524</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18196,7 +18372,7 @@
         <v>32306.13786524</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18229,7 +18405,7 @@
         <v>31029.54746524</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18262,7 +18438,7 @@
         <v>30490.52436524</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18394,7 +18570,7 @@
         <v>32416.91552656</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18427,7 +18603,7 @@
         <v>31958.67852656</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18460,7 +18636,7 @@
         <v>31397.58156416</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18526,7 +18702,7 @@
         <v>32441.13236416</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18592,7 +18768,7 @@
         <v>32347.9794406</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18625,7 +18801,7 @@
         <v>32434.3238406</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18658,7 +18834,7 @@
         <v>32363.4616406</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18691,7 +18867,7 @@
         <v>32389.7685406</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18724,7 +18900,7 @@
         <v>32778.9612406</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18757,7 +18933,7 @@
         <v>32939.1802406</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18790,7 +18966,7 @@
         <v>33762.4687406</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18856,7 +19032,7 @@
         <v>33548.01084060001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18889,7 +19065,7 @@
         <v>33388.01214060001</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18922,7 +19098,7 @@
         <v>33971.14004060001</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18955,7 +19131,7 @@
         <v>33971.14004060001</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18988,7 +19164,7 @@
         <v>33678.89924060001</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19021,7 +19197,7 @@
         <v>33851.63274060001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19054,7 +19230,7 @@
         <v>33754.36184060001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19087,7 +19263,7 @@
         <v>33690.13494060001</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19120,7 +19296,7 @@
         <v>33690.13494060001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19186,7 +19362,7 @@
         <v>33369.95754060001</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19252,7 +19428,7 @@
         <v>35100.3333553</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19285,7 +19461,7 @@
         <v>34579.78454443</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19318,7 +19494,7 @@
         <v>33994.34284443</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19351,7 +19527,7 @@
         <v>35020.02034443</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19384,7 +19560,7 @@
         <v>34560.31664443</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19417,7 +19593,7 @@
         <v>34478.80064443</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19450,7 +19626,7 @@
         <v>34516.59364443</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19483,7 +19659,7 @@
         <v>34313.13934443</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19516,7 +19692,7 @@
         <v>34148.98174443</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19549,7 +19725,7 @@
         <v>33872.05344443</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19582,7 +19758,7 @@
         <v>33872.05344443</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19615,7 +19791,7 @@
         <v>33802.75588611</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19648,7 +19824,7 @@
         <v>33590.17392266</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19681,7 +19857,7 @@
         <v>34166.52724624</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19945,7 +20121,7 @@
         <v>35043.60454624</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20011,7 +20187,7 @@
         <v>35032.25244624</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -26644,7 +26820,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26677,7 +26853,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26710,7 +26886,7 @@
         <v>24275.21681144002</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26809,7 +26985,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26842,7 +27018,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26875,7 +27051,7 @@
         <v>24203.40851144001</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26908,7 +27084,7 @@
         <v>24236.61821144001</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26941,7 +27117,7 @@
         <v>24236.41811144001</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26974,7 +27150,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27007,7 +27183,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27040,7 +27216,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27106,7 +27282,7 @@
         <v>24216.72041144001</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -30175,7 +30351,7 @@
         <v>22151.16416702001</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30208,7 +30384,7 @@
         <v>22388.34477165001</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30241,7 +30417,7 @@
         <v>22065.49277165001</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30274,7 +30450,7 @@
         <v>22043.27277165001</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30307,7 +30483,7 @@
         <v>21993.39277165001</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30340,7 +30516,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30373,7 +30549,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30406,7 +30582,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30439,7 +30615,7 @@
         <v>22033.39277165001</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30472,7 +30648,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30505,7 +30681,7 @@
         <v>21697.09887165001</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30538,7 +30714,7 @@
         <v>21897.47677165001</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30571,7 +30747,7 @@
         <v>21883.54957165001</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30604,7 +30780,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30637,7 +30813,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30670,7 +30846,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30703,7 +30879,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30736,7 +30912,7 @@
         <v>21902.33527165001</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30769,7 +30945,7 @@
         <v>21902.23527165001</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30802,7 +30978,7 @@
         <v>21902.13527165002</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30835,7 +31011,7 @@
         <v>21902.03527165002</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30868,7 +31044,7 @@
         <v>21901.83527165002</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30901,7 +31077,7 @@
         <v>21871.83527165002</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30934,7 +31110,7 @@
         <v>21872.44357165002</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30967,7 +31143,7 @@
         <v>21676.30877165002</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31000,7 +31176,7 @@
         <v>21676.85777165001</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31033,7 +31209,7 @@
         <v>21506.85777165001</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31264,7 +31440,7 @@
         <v>22274.62917165001</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31297,7 +31473,7 @@
         <v>22074.63017165001</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
